--- a/Tests/IHE8001 MODEチェック4機種.xlsx
+++ b/Tests/IHE8001 MODEチェック4機種.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\VoiceNavi\voice_navi_test\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E242EC5-47FD-4797-BFCC-BAF217AB2F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D86217-A66E-4219-93B6-B8FEE118E5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0FCDEBC5-A1B8-419C-8E9C-F2839559D4D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FCDEBC5-A1B8-419C-8E9C-F2839559D4D0}"/>
   </bookViews>
   <sheets>
     <sheet name="MODE" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="206">
   <si>
     <t>IHE8001 チェック事項</t>
     <rPh sb="12" eb="14">
@@ -2023,6 +2023,9 @@
 STOP: FFh, 00h
 バッファリング20ｃｈ保持
 減音なし</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -2401,7 +2404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2609,6 +2612,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2645,48 +2681,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2696,12 +2732,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2720,15 +2750,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2753,32 +2774,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5071,7 +5068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFE71ED-4794-434D-8B70-AFC9629A6BE2}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -5156,13 +5153,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="80" t="s">
         <v>101</v>
       </c>
       <c r="B9" s="16">
         <v>1</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="85" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="36" t="s">
@@ -5174,14 +5171,14 @@
       <c r="F9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="69"/>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="1:7" ht="54">
-      <c r="A10" s="79"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="36" t="s">
         <v>89</v>
       </c>
@@ -5191,10 +5188,10 @@
       <c r="F10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="70"/>
+      <c r="G10" s="81"/>
     </row>
     <row r="11" spans="1:7" ht="81">
-      <c r="A11" s="70"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="28">
         <v>3</v>
       </c>
@@ -5209,7 +5206,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="67.5">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="86" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="15">
@@ -5230,7 +5227,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="67.5">
-      <c r="A13" s="76"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="15">
         <v>5</v>
       </c>
@@ -5337,7 +5334,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="94.5">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="84" t="s">
         <v>107</v>
       </c>
       <c r="B18" s="16">
@@ -5350,15 +5347,15 @@
         <v>92</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="71" t="s">
+      <c r="G18" s="82" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="67.5">
-      <c r="A19" s="74"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="16">
         <v>11</v>
       </c>
@@ -5369,11 +5366,11 @@
       <c r="E19" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
     </row>
     <row r="20" spans="1:7" ht="108.75" customHeight="1">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="86" t="s">
         <v>108</v>
       </c>
       <c r="B20" s="15">
@@ -5386,15 +5383,15 @@
         <v>91</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="67.5">
-      <c r="A21" s="76"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="15">
         <v>13</v>
       </c>
@@ -5405,8 +5402,8 @@
       <c r="E21" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
     </row>
     <row r="24" spans="1:7">
       <c r="F24" s="60"/>
@@ -5459,8 +5456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC51B83-83D2-4537-9B06-1FD4D3D4725D}">
   <dimension ref="A3:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:G28"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5537,7 +5534,7 @@
       <c r="C6" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -5561,7 +5558,7 @@
       <c r="C7" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E7" s="43" t="s">
@@ -5585,13 +5582,13 @@
       <c r="C8" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="118" t="s">
+      <c r="F8" s="72" t="s">
         <v>125</v>
       </c>
       <c r="G8" s="44" t="s">
@@ -5609,13 +5606,13 @@
       <c r="C9" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F9" s="72" t="s">
         <v>125</v>
       </c>
       <c r="G9" s="44" t="s">
@@ -5633,13 +5630,13 @@
       <c r="C10" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="73" t="s">
         <v>185</v>
       </c>
       <c r="G10" s="44" t="s">
@@ -5657,7 +5654,7 @@
       <c r="C11" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E11" s="62" t="s">
@@ -5681,7 +5678,7 @@
       <c r="C12" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -5705,7 +5702,7 @@
       <c r="C13" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E13" s="41" t="s">
@@ -5729,13 +5726,13 @@
       <c r="C14" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="71" t="s">
         <v>125</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="73" t="s">
         <v>186</v>
       </c>
       <c r="G14" s="44" t="s">
@@ -5786,13 +5783,13 @@
       <c r="B25" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="45" t="s">
         <v>130</v>
       </c>
@@ -5804,13 +5801,13 @@
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
       <c r="H26" s="32" t="s">
         <v>142</v>
       </c>
@@ -5822,13 +5819,13 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
       <c r="H27" s="32" t="s">
         <v>142</v>
       </c>
@@ -5840,13 +5837,13 @@
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="32" t="s">
         <v>142</v>
       </c>
@@ -5858,13 +5855,13 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
       <c r="H29" s="32" t="s">
         <v>142</v>
       </c>
@@ -5876,13 +5873,13 @@
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
       <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8">
@@ -5892,11 +5889,11 @@
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
       <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8">
@@ -5906,11 +5903,11 @@
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
       <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8">
@@ -5920,11 +5917,11 @@
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
       <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8">
@@ -5934,11 +5931,11 @@
       <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
       <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8">
@@ -5948,11 +5945,11 @@
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
       <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:8">
@@ -5962,11 +5959,11 @@
       <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="93"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8">
@@ -5976,13 +5973,13 @@
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
       <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8">
@@ -5992,13 +5989,13 @@
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
       <c r="H38" s="32"/>
     </row>
     <row r="39" spans="1:8">
@@ -6008,13 +6005,13 @@
       <c r="B39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
       <c r="H39" s="32" t="s">
         <v>142</v>
       </c>
@@ -6026,13 +6023,13 @@
       <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
       <c r="H40" s="32" t="s">
         <v>142</v>
       </c>
@@ -6044,13 +6041,13 @@
       <c r="B41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="80" t="s">
+      <c r="C41" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
       <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8">
@@ -6060,13 +6057,13 @@
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
       <c r="H42" s="32" t="s">
         <v>142</v>
       </c>
@@ -6078,13 +6075,13 @@
       <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="80" t="s">
+      <c r="C43" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
       <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8">
@@ -6094,13 +6091,13 @@
       <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="80" t="s">
+      <c r="C44" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
       <c r="H44" s="32" t="s">
         <v>142</v>
       </c>
@@ -6112,13 +6109,13 @@
       <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
       <c r="H45" s="32"/>
     </row>
     <row r="46" spans="1:8">
@@ -6128,13 +6125,13 @@
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
       <c r="H46" s="32" t="s">
         <v>142</v>
       </c>
@@ -6146,11 +6143,11 @@
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
       <c r="H47" s="32"/>
     </row>
     <row r="48" spans="1:8">
@@ -6160,11 +6157,11 @@
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="91"/>
       <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8">
@@ -6174,11 +6171,11 @@
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
       <c r="H49" s="32"/>
     </row>
     <row r="50" spans="1:8">
@@ -6188,11 +6185,11 @@
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
       <c r="H50" s="32"/>
     </row>
     <row r="51" spans="1:8">
@@ -6202,11 +6199,11 @@
       <c r="B51" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
       <c r="H51" s="32"/>
     </row>
     <row r="52" spans="1:8">
@@ -6216,11 +6213,11 @@
       <c r="B52" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
       <c r="H52" s="32"/>
     </row>
     <row r="53" spans="1:8">
@@ -6230,13 +6227,13 @@
       <c r="B53" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
       <c r="H53" s="32"/>
     </row>
     <row r="54" spans="1:8">
@@ -6246,13 +6243,13 @@
       <c r="B54" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="80" t="s">
+      <c r="C54" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
       <c r="H54" s="32"/>
     </row>
     <row r="55" spans="1:8">
@@ -6262,11 +6259,11 @@
       <c r="B55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
       <c r="H55" s="32"/>
     </row>
     <row r="56" spans="1:8">
@@ -6276,19 +6273,19 @@
       <c r="B56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="91"/>
       <c r="H56" s="32"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
     </row>
     <row r="59" spans="1:8">
       <c r="B59" s="46" t="s">
@@ -6313,12 +6310,12 @@
       <c r="C61" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="82" t="s">
+      <c r="D61" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="84"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="94"/>
       <c r="H61" s="32" t="s">
         <v>142</v>
       </c>
@@ -6330,10 +6327,10 @@
       <c r="C62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D62" s="85"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="87"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="97"/>
       <c r="H62" s="32" t="s">
         <v>142</v>
       </c>
@@ -6345,10 +6342,10 @@
       <c r="C63" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="85"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="87"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="97"/>
       <c r="H63" s="32" t="s">
         <v>142</v>
       </c>
@@ -6360,21 +6357,30 @@
       <c r="C64" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D64" s="88"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="90"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="100"/>
       <c r="H64" s="32" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="D61:G64"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C57:G57"/>
@@ -6390,20 +6396,11 @@
     <mergeCell ref="C42:G42"/>
     <mergeCell ref="C52:G52"/>
     <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="D61:G64"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6419,8 +6416,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6439,158 +6436,180 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="G2" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="3" spans="1:7" ht="81" customHeight="1">
       <c r="A3" s="49"/>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="106" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="74" t="s">
         <v>195</v>
       </c>
       <c r="F3" s="56"/>
-      <c r="G3" s="97"/>
+      <c r="G3" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="114">
       <c r="A4" s="49"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="75" t="s">
         <v>197</v>
       </c>
       <c r="F4" s="56"/>
-      <c r="G4" s="97"/>
+      <c r="G4" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="57">
       <c r="A5" s="49"/>
-      <c r="B5" s="97"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="53" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="51"/>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="76" t="s">
         <v>196</v>
       </c>
       <c r="F5" s="56"/>
-      <c r="G5" s="97"/>
+      <c r="G5" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="57">
       <c r="A6" s="49"/>
-      <c r="B6" s="97"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="50" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="75" t="s">
         <v>198</v>
       </c>
       <c r="F6" s="56"/>
-      <c r="G6" s="97"/>
+      <c r="G6" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="57">
       <c r="A7" s="49"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="50" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="76" t="s">
         <v>194</v>
       </c>
       <c r="F7" s="56"/>
-      <c r="G7" s="97"/>
+      <c r="G7" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="71.25">
       <c r="A8" s="49"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="50" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="125" t="s">
+      <c r="E8" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="97"/>
+      <c r="G8" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="49"/>
-      <c r="B9" s="97"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="50" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="123" t="s">
+      <c r="E9" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="97"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="85.5">
       <c r="A10" s="49"/>
-      <c r="B10" s="97"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="50" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="98"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="85.5">
       <c r="A11" s="49"/>
-      <c r="B11" s="97"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="50" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="79" t="s">
         <v>201</v>
       </c>
       <c r="F11" s="56"/>
-      <c r="G11" s="99"/>
+      <c r="G11" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="57">
       <c r="A12" s="1"/>
-      <c r="B12" s="78"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="64" t="s">
         <v>170</v>
       </c>
       <c r="D12" s="65"/>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="78" t="s">
         <v>172</v>
       </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G11"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="F8:F10"/>
   </mergeCells>
@@ -6607,8 +6626,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6634,156 +6653,176 @@
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="G3" s="70" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="42.75">
       <c r="A4" s="49"/>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="113" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="74" t="s">
         <v>195</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="106"/>
+      <c r="G4" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="114">
       <c r="A5" s="49"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="75" t="s">
         <v>197</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="106"/>
+      <c r="G5" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="57">
       <c r="A6" s="49"/>
-      <c r="B6" s="97"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="50" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="76" t="s">
         <v>196</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="106"/>
+      <c r="G6" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="57">
       <c r="A7" s="49"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="50" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="75" t="s">
         <v>198</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="106"/>
+      <c r="G7" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="57">
       <c r="A8" s="49"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="50" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="76" t="s">
         <v>194</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="106"/>
+      <c r="G8" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="49"/>
-      <c r="B9" s="97"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="50" t="s">
         <v>74</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="55"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="106"/>
+      <c r="G9" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="71.25">
       <c r="A10" s="49"/>
-      <c r="B10" s="97"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="50" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="79" t="s">
         <v>199</v>
       </c>
       <c r="F10" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="106"/>
+      <c r="G10" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="85.5">
       <c r="A11" s="49"/>
-      <c r="B11" s="97"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="50" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="79" t="s">
         <v>202</v>
       </c>
       <c r="F11" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="107"/>
+      <c r="G11" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="85.5">
       <c r="A12" s="49"/>
-      <c r="B12" s="97"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="50" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="125" t="s">
+      <c r="E12" s="79" t="s">
         <v>203</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="108"/>
+      <c r="G12" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="54">
       <c r="A13" s="24"/>
-      <c r="B13" s="78"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="64" t="s">
         <v>170</v>
       </c>
@@ -6795,9 +6834,8 @@
       <c r="G13" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G4:G12"/>
     <mergeCell ref="B4:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -6814,7 +6852,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G3" sqref="G3:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6833,94 +6871,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="G3" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="4" spans="1:7" ht="42.75">
       <c r="A4" s="49"/>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="113" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="74" t="s">
         <v>195</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="106"/>
+      <c r="G4" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="114">
       <c r="A5" s="49"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="109"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="75" t="s">
         <v>197</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="G5" s="106"/>
+      <c r="G5" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="57">
       <c r="A6" s="49"/>
-      <c r="B6" s="97"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="50" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="76" t="s">
         <v>196</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="106"/>
+      <c r="G6" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="57">
       <c r="A7" s="49"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="50" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="75" t="s">
         <v>198</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="106"/>
+      <c r="G7" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="57">
       <c r="A8" s="49"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="50" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="76" t="s">
         <v>194</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="106"/>
+      <c r="G8" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="49"/>
-      <c r="B9" s="97"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="50" t="s">
         <v>74</v>
       </c>
@@ -6931,11 +6984,13 @@
         <v>152</v>
       </c>
       <c r="F9" s="49"/>
-      <c r="G9" s="106"/>
+      <c r="G9" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="49"/>
-      <c r="B10" s="97"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="50" t="s">
         <v>78</v>
       </c>
@@ -6946,11 +7001,13 @@
         <v>152</v>
       </c>
       <c r="F10" s="49"/>
-      <c r="G10" s="106"/>
+      <c r="G10" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="49"/>
-      <c r="B11" s="97"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="50" t="s">
         <v>79</v>
       </c>
@@ -6961,11 +7018,13 @@
         <v>152</v>
       </c>
       <c r="F11" s="49"/>
-      <c r="G11" s="107"/>
+      <c r="G11" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="49"/>
-      <c r="B12" s="97"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="50" t="s">
         <v>80</v>
       </c>
@@ -6976,11 +7035,13 @@
         <v>152</v>
       </c>
       <c r="F12" s="49"/>
-      <c r="G12" s="108"/>
+      <c r="G12" s="123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="40.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="78"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="64" t="s">
         <v>170</v>
       </c>
@@ -6992,9 +7053,8 @@
       <c r="G13" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G4:G12"/>
     <mergeCell ref="B4:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -7008,10 +7068,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7025,14 +7085,19 @@
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75" customHeight="1">
+    <row r="2" spans="1:8">
+      <c r="H2" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" customHeight="1">
       <c r="A3" s="49"/>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="109" t="s">
         <v>179</v>
       </c>
       <c r="C3" s="50" t="s">
@@ -7047,13 +7112,16 @@
       <c r="F3" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="117" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="67.5">
+      <c r="H3" s="123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.5">
       <c r="A4" s="49"/>
-      <c r="B4" s="97"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="50" t="s">
         <v>82</v>
       </c>
@@ -7064,11 +7132,14 @@
         <v>204</v>
       </c>
       <c r="F4" s="49"/>
-      <c r="G4" s="112"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="118"/>
+      <c r="H4" s="123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="49"/>
-      <c r="B5" s="97"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="50" t="s">
         <v>84</v>
       </c>
@@ -7079,11 +7150,14 @@
         <v>152</v>
       </c>
       <c r="F5" s="49"/>
-      <c r="G5" s="112"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="118"/>
+      <c r="H5" s="123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="49"/>
-      <c r="B6" s="97"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="50" t="s">
         <v>85</v>
       </c>
@@ -7094,11 +7168,14 @@
         <v>152</v>
       </c>
       <c r="F6" s="49"/>
-      <c r="G6" s="112"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="118"/>
+      <c r="H6" s="123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="49"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="50" t="s">
         <v>74</v>
       </c>
@@ -7109,11 +7186,14 @@
         <v>152</v>
       </c>
       <c r="F7" s="49"/>
-      <c r="G7" s="112"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="118"/>
+      <c r="H7" s="123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="49"/>
-      <c r="B8" s="97"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="50" t="s">
         <v>78</v>
       </c>
@@ -7124,11 +7204,14 @@
         <v>152</v>
       </c>
       <c r="F8" s="49"/>
-      <c r="G8" s="112"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="118"/>
+      <c r="H8" s="123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="49"/>
-      <c r="B9" s="97"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="50" t="s">
         <v>79</v>
       </c>
@@ -7139,11 +7222,14 @@
         <v>152</v>
       </c>
       <c r="F9" s="49"/>
-      <c r="G9" s="112"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="118"/>
+      <c r="H9" s="123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="49"/>
-      <c r="B10" s="97"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="50" t="s">
         <v>80</v>
       </c>
@@ -7154,11 +7240,14 @@
         <v>152</v>
       </c>
       <c r="F10" s="49"/>
-      <c r="G10" s="113"/>
-    </row>
-    <row r="11" spans="1:7" ht="40.5">
+      <c r="G10" s="119"/>
+      <c r="H10" s="123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="78"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="64" t="s">
         <v>170</v>
       </c>
@@ -7168,6 +7257,7 @@
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
+      <c r="H11" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7241,13 +7331,13 @@
       <c r="B4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="122" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="21">
@@ -7270,10 +7360,10 @@
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="114" t="s">
+      <c r="O4" s="120" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7281,9 +7371,9 @@
       <c r="B5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="21">
         <v>0</v>
       </c>
@@ -7308,8 +7398,8 @@
       <c r="M5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
     </row>
     <row r="6" spans="2:15" ht="14.25">
       <c r="B6" s="21" t="s">
@@ -7471,11 +7561,11 @@
       <c r="H11" s="21">
         <v>12</v>
       </c>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="121" t="s">
         <v>58</v>
       </c>
       <c r="J11" s="21"/>
-      <c r="K11" s="115" t="s">
+      <c r="K11" s="121" t="s">
         <v>57</v>
       </c>
       <c r="L11" s="21" t="s">
@@ -7507,11 +7597,11 @@
       <c r="H12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="115"/>
+      <c r="I12" s="121"/>
       <c r="J12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="115"/>
+      <c r="K12" s="121"/>
       <c r="L12" s="21" t="s">
         <v>28</v>
       </c>

--- a/Tests/IHE8001 MODEチェック4機種.xlsx
+++ b/Tests/IHE8001 MODEチェック4機種.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\VoiceNavi\voice_navi_test\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D86217-A66E-4219-93B6-B8FEE118E5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29897507-7245-4E31-BF68-82216D99C528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FCDEBC5-A1B8-419C-8E9C-F2839559D4D0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FCDEBC5-A1B8-419C-8E9C-F2839559D4D0}"/>
   </bookViews>
   <sheets>
     <sheet name="MODE" sheetId="3" r:id="rId1"/>
@@ -546,10 +546,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">111バイナリ制御 ２(正論理） </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">110バイナリ制御 1(負論理） </t>
     <rPh sb="12" eb="13">
       <t>フ</t>
@@ -566,10 +562,6 @@
   </si>
   <si>
     <t>110バイナリ制御 1(正論理）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">111バイナリ制御 ２ (負論理） </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -718,103 +710,6 @@
     </rPh>
     <rPh sb="40" eb="44">
       <t>ユウセンショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御２</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-1-250　バッファリング20ｃｈ保持
-BUSY H
-１＝０１ｈ
-STOP:FFｈ
-SW8減音あり
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>減音大リセットＦＤｈ　中Bh　小FCｈは無し</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御１</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-1-250　バッファリング20ｃｈ保持
-BUSY L
-1＝ＦＡｈ
-STOP:FFｈ
-SW8減音あり</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>減音大リセットＦＤｈ　中Bh　小FCｈは無し</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ゲンオン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1043,98 +938,6 @@
     </rPh>
     <rPh sb="105" eb="107">
       <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>負論理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>5A2の制御1と近い。Ｃｈ：255
-STOPなし（STOP入力のみ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バッファリング20ｃｈ保持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>減音なし</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>フロンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ホジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1756,13 +1559,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>→WAV5A2/５F2と同じ</t>
-    <rPh sb="12" eb="13">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　65CIH02（5F9基板使用）
 入力BIT数=12　　　　　　　　　　　　　　　　　　　　　　　　　
 SP出力は打合による8W⇒5W
@@ -1801,54 +1597,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5F9
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">納入仕様書 WAV5F9-IH00.pdf
-65CIH02仕様書_IUK.PDF
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>両方を参照のこと
-接点12bit</t>
-    </r>
-  </si>
-  <si>
-    <t>→WAV5A2/５F2
-後入力切替再生と類似</t>
-    <rPh sb="12" eb="13">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キリカエ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ルイジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1979,60 +1727,319 @@
 優先処理 SW1 &gt; SW2 &gt; SW3 &gt; … &gt; SWn</t>
   </si>
   <si>
-    <t xml:space="preserve">バイナリ制御３　　6650V2互換
+    <t>OK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>負論理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5A2の制御1と近い。Ｃｈ：255
+STOPなし（STOP入力のみ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング20ｃｈ保持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>減音なし</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>フロンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御１</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+1-250　バッファリング20ｃｈ保持
+BUSY L
+1＝ＦＡｈ
+STOP:FFｈ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SW8減音あり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>減音大リセットＦＤｈ　中Bh　小FCｈは無し</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ゲンオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御２</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+1-250　バッファリング20ｃｈ保持
+BUSY H
+１＝０１ｈ
+STOP:FFｈ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SW8減音あり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>減音大リセットＦＤｈ　中Bh　小FCｈは無し</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイナリ制御３　　6650V2互換
 1-126; 20 ch 保持
 1 = 7Eh - SW1以外、全部押されている
-STOP: 7Fh, 00h
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バイナリ制御１
+STOP: 7Fh or 00h
+バッファリング20ch 保持</t>
+  </si>
+  <si>
+    <t>バイナリ制御１
 1-250; 20 ch 保持
 BUSY LOW
 1 = FAh
-STOP: FFh, 00h
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バイナリ制御２
+STOP: FFh or 00h
+バッファリング20ch 保持</t>
+  </si>
+  <si>
+    <t>バイナリ制御２
 1-250; 20 ch 保持
 BUSY LOW
 1 = 01h
+STOP: FFh or 00h
+バッファリング20ch 保持</t>
+  </si>
+  <si>
+    <t>→WAV5A2/5F2と同じ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111バイナリ制御 2 (負論理） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">111バイナリ制御 2(正論理） </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5F9
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">納入仕様書 WAV5F9-IH00.pdf
+65CIH02仕様書_IUK.PDF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>両方を参照のこと
+接点12bit</t>
+    </r>
+  </si>
+  <si>
+    <t>→WAV5A2/5F2
+後入力切替再生と類似</t>
+  </si>
+  <si>
+    <t>負論理
+5F2の制御2と同じ。Ch: 254
 STOP: FFh, 00h
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バイナリ制御1
-1-255; 20 ch 保持
+WPJ内の音量選択あり</t>
+  </si>
+  <si>
+    <t>バイナリ制御2
+1-254; 20 ch 保持
+BUSY LOW
+1 = FAh
+STOP: FFh or 00h
+バッファリング20ch 保持</t>
+  </si>
+  <si>
+    <t>バイナリ制御1
+1-254; 20 ch 保持
 BUSY LOW
 1 = 01h
-STOP: FFh, 00h
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バイナリ制御2
-1-255; 20 ch 保持
-BUSY LOW
-1 = FAh
-STOP: FFh, 00h
-</t>
-  </si>
-  <si>
-    <t>負論理
-5F2の制御2と同じ。Ｃｈ：255
-STOP: FFh, 00h
-バッファリング20ｃｈ保持
-減音なし</t>
-  </si>
-  <si>
-    <t>OK</t>
+STOP: 00h or FFh
+バッファリング20ch 保持</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2111,13 +2118,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="HGPｺﾞｼｯｸM"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="5"/>
       <name val="HGPｺﾞｼｯｸM"/>
       <family val="3"/>
@@ -2127,6 +2127,7 @@
       <sz val="11"/>
       <color theme="9"/>
       <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2147,8 +2148,29 @@
       <family val="2"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2404,7 +2426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2483,12 +2505,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2555,30 +2571,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2594,92 +2589,80 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2708,63 +2691,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2774,8 +2700,119 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5068,8 +5105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFE71ED-4794-434D-8B70-AFC9629A6BE2}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5090,7 +5127,7 @@
         <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5099,39 +5136,39 @@
         <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9"/>
       <c r="C4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="54">
-      <c r="A8" s="31" t="s">
-        <v>109</v>
+      <c r="A8" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>65</v>
@@ -5140,30 +5177,30 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A9" s="80" t="s">
-        <v>101</v>
+      <c r="A9" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="B9" s="16">
         <v>1</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>88</v>
+      <c r="D9" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>33</v>
@@ -5171,16 +5208,16 @@
       <c r="F9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="80"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="54">
-      <c r="A10" s="90"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="36" t="s">
-        <v>89</v>
+      <c r="C10" s="67"/>
+      <c r="D10" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>33</v>
@@ -5188,26 +5225,26 @@
       <c r="F10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="81"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:7" ht="81">
-      <c r="A11" s="81"/>
-      <c r="B11" s="28">
+      <c r="A11" s="63"/>
+      <c r="B11" s="26">
         <v>3</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="36"/>
+      <c r="C11" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="34"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="67.5">
-      <c r="A12" s="86" t="s">
-        <v>102</v>
+      <c r="A12" s="68" t="s">
+        <v>98</v>
       </c>
       <c r="B12" s="15">
         <v>4</v>
@@ -5216,7 +5253,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>33</v>
@@ -5227,23 +5264,23 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="67.5">
-      <c r="A13" s="87"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>111</v>
+      <c r="C13" s="38" t="s">
+        <v>107</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="11" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57" customHeight="1">
-      <c r="A14" s="34" t="s">
-        <v>103</v>
+      <c r="A14" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="B14" s="16">
         <v>6</v>
@@ -5251,8 +5288,8 @@
       <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>90</v>
+      <c r="D14" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>33</v>
@@ -5260,13 +5297,13 @@
       <c r="F14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5">
-      <c r="A15" s="31" t="s">
-        <v>104</v>
+      <c r="A15" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="B15" s="15">
         <v>7</v>
@@ -5275,7 +5312,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>33</v>
@@ -5283,13 +5320,13 @@
       <c r="F15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="81">
-      <c r="A16" s="34" t="s">
-        <v>105</v>
+      <c r="A16" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="B16" s="16">
         <v>8</v>
@@ -5297,22 +5334,22 @@
       <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="94.5">
-      <c r="A17" s="31" t="s">
-        <v>106</v>
+      <c r="A17" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="B17" s="15">
         <v>9</v>
@@ -5320,22 +5357,22 @@
       <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="94.5">
-      <c r="A18" s="84" t="s">
-        <v>107</v>
+      <c r="A18" s="66" t="s">
+        <v>103</v>
       </c>
       <c r="B18" s="16">
         <v>10</v>
@@ -5343,35 +5380,35 @@
       <c r="C18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>92</v>
+      <c r="D18" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="82" t="s">
+      <c r="G18" s="64" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="67.5">
-      <c r="A19" s="85"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="16">
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
+        <v>158</v>
+      </c>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
     </row>
     <row r="20" spans="1:7" ht="108.75" customHeight="1">
-      <c r="A20" s="86" t="s">
-        <v>108</v>
+      <c r="A20" s="68" t="s">
+        <v>104</v>
       </c>
       <c r="B20" s="15">
         <v>12</v>
@@ -5379,19 +5416,19 @@
       <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>91</v>
+      <c r="D20" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="88" t="s">
+      <c r="F20" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="88" t="s">
+      <c r="G20" s="70" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="67.5">
-      <c r="A21" s="87"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="15">
         <v>13</v>
       </c>
@@ -5400,13 +5437,13 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
+        <v>159</v>
+      </c>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="F24" s="60"/>
+      <c r="F24" s="51"/>
     </row>
     <row r="25" spans="1:7">
       <c r="E25" s="23"/>
@@ -5429,7 +5466,7 @@
     </row>
     <row r="52" spans="5:5">
       <c r="E52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5456,917 +5493,940 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC51B83-83D2-4537-9B06-1FD4D3D4725D}">
   <dimension ref="A3:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="33"/>
+    <col min="1" max="1" width="8.88671875" style="31"/>
     <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.75">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="H4" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="30">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="C6" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="30">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="C7" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="30">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="C8" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="30">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="32">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C9" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
+      <c r="A10" s="30">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="30">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="30">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="44" t="s">
+      <c r="C12" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="30">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25">
+      <c r="A14" s="30">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="30">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="52"/>
+      <c r="C17" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="52"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="32">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="32">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="32">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="32">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="32">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="32">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="32">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="32"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="32">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="32">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="32">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" s="67" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="61"/>
-      <c r="C17" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="61"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="45" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="32">
+      <c r="A26" s="30">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="32" t="s">
-        <v>142</v>
+      <c r="C26" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="32">
+      <c r="A27" s="30">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="32" t="s">
-        <v>142</v>
+      <c r="C27" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="32">
+      <c r="A28" s="30">
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="32" t="s">
-        <v>142</v>
+      <c r="C28" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="32">
+      <c r="A29" s="30">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="32" t="s">
-        <v>142</v>
+      <c r="C29" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="32"/>
+      <c r="C30" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="32">
+      <c r="A31" s="30">
         <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="32"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="32">
+      <c r="A32" s="30">
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="32"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="32">
+      <c r="A33" s="30">
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="32"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="32">
+      <c r="A34" s="30">
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="32"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="30"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="32">
+      <c r="A35" s="30">
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="32"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="32">
+      <c r="A36" s="30">
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="32"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="32">
+      <c r="A37" s="30">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="32"/>
+      <c r="C37" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="32">
+      <c r="A38" s="30">
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="32"/>
+      <c r="C38" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="32">
+      <c r="A39" s="30">
         <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="32" t="s">
-        <v>142</v>
+      <c r="C39" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="32">
+      <c r="A40" s="30">
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="32" t="s">
-        <v>142</v>
+      <c r="C40" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="32">
+      <c r="A41" s="30">
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="32"/>
+      <c r="C41" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="32">
+      <c r="A42" s="30">
         <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="32" t="s">
-        <v>142</v>
+      <c r="C42" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="32">
+      <c r="A43" s="30">
         <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="32"/>
+      <c r="C43" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="30"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="32">
+      <c r="A44" s="30">
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="32" t="s">
-        <v>142</v>
+      <c r="C44" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="32">
+      <c r="A45" s="30">
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="32"/>
+      <c r="C45" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="30"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="32">
+      <c r="A46" s="30">
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="32" t="s">
-        <v>142</v>
+      <c r="C46" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="32">
+      <c r="A47" s="30">
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="32"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="30"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="32">
+      <c r="A48" s="30">
         <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="32"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="30"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="32">
+      <c r="A49" s="30">
         <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="32"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="30"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="32">
+      <c r="A50" s="30">
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="32"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="32">
+      <c r="A51" s="30">
         <v>26</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="32"/>
+        <v>148</v>
+      </c>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="32">
+      <c r="A52" s="30">
         <v>27</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="91"/>
-      <c r="H52" s="32"/>
+        <v>149</v>
+      </c>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="32">
+      <c r="A53" s="30">
         <v>28</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="32"/>
+        <v>150</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="32">
+      <c r="A54" s="30">
         <v>29</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="32"/>
+        <v>151</v>
+      </c>
+      <c r="C54" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="30"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="32">
+      <c r="A55" s="30">
         <v>30</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="32"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="32">
+      <c r="A56" s="30">
         <v>31</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="32"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="48" t="s">
-        <v>146</v>
+      <c r="C59" s="46" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="B60" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" s="59" t="s">
-        <v>147</v>
+      <c r="B60" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" s="95"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="32" t="s">
-        <v>142</v>
+        <v>182</v>
+      </c>
+      <c r="D62" s="82"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" s="95"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="32" t="s">
-        <v>142</v>
+        <v>183</v>
+      </c>
+      <c r="D63" s="82"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D64" s="98"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="100"/>
-      <c r="H64" s="32" t="s">
-        <v>142</v>
+        <v>184</v>
+      </c>
+      <c r="D64" s="85"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D61:G64"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C38:G38"/>
@@ -6376,31 +6436,8 @@
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="D61:G64"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6416,196 +6453,208 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="33" customWidth="1"/>
+    <col min="2" max="2" width="9" style="31" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="31" customWidth="1"/>
     <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="14.25">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="G2" s="70" t="s">
-        <v>130</v>
+      <c r="B1" s="93"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="95" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="81" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="106" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="114">
+      <c r="A4" s="96"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57">
+      <c r="A5" s="96"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="91"/>
+      <c r="E5" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57">
+      <c r="A6" s="96"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57">
+      <c r="A7" s="96"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="71.25">
+      <c r="A8" s="96"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="114">
-      <c r="A4" s="49"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="51" t="s">
+      <c r="F8" s="106" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="96"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E9" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="108"/>
+      <c r="G9" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="85.5">
+      <c r="A10" s="96"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="109"/>
+      <c r="G10" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="85.5">
+      <c r="A11" s="96"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="57">
-      <c r="A5" s="49"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57">
-      <c r="A6" s="49"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57">
-      <c r="A7" s="49"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="71.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" s="110" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="85.5">
-      <c r="A10" s="49"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="112"/>
-      <c r="G10" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="85.5">
-      <c r="A11" s="49"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="123" t="s">
-        <v>205</v>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="57">
-      <c r="A12" s="1"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="69"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="112"/>
+      <c r="E12" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6626,16 +6675,16 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G12"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="33" customWidth="1"/>
+    <col min="2" max="2" width="9" style="31" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="31" customWidth="1"/>
     <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -6646,192 +6695,192 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="70" t="s">
-        <v>130</v>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="95" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.75">
-      <c r="A4" s="49"/>
-      <c r="B4" s="109" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="114">
+      <c r="A5" s="47"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57">
+      <c r="A6" s="47"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57">
+      <c r="A7" s="47"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57">
+      <c r="A8" s="47"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="71.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="123" t="s">
+      <c r="F10" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="85.5">
+      <c r="A11" s="47"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="105" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="114">
-      <c r="A5" s="49"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="51" t="s">
+      <c r="F11" s="120" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="85.5">
+      <c r="A12" s="47"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="104" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57">
-      <c r="A6" s="49"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57">
-      <c r="A7" s="49"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57">
-      <c r="A8" s="49"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="49"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="71.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="85.5">
-      <c r="A11" s="49"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85.5">
-      <c r="A12" s="49"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="54">
+      <c r="E12" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="118"/>
+      <c r="G12" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57">
       <c r="A13" s="24"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="112"/>
+      <c r="E13" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6852,15 +6901,15 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="33" customWidth="1"/>
+    <col min="2" max="2" width="9" style="31" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="31" customWidth="1"/>
     <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" customWidth="1"/>
@@ -6871,186 +6920,191 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="G3" s="70" t="s">
-        <v>130</v>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="B3" s="93"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="95" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.75">
-      <c r="A4" s="49"/>
-      <c r="B4" s="116" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="123" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="74" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="123" t="s">
-        <v>205</v>
+      <c r="E4" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="114">
-      <c r="A5" s="49"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="51" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G5" s="123" t="s">
-        <v>205</v>
+      <c r="E5" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="100" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57">
-      <c r="A6" s="49"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="50" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="123" t="s">
-        <v>205</v>
+      <c r="E6" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="100" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57">
-      <c r="A7" s="49"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="50" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" s="123" t="s">
-        <v>205</v>
+      <c r="G7" s="100" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57">
-      <c r="A8" s="49"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="50" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="49"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="51" t="s">
+      <c r="E8" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="49"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="50" t="s">
+      <c r="E9" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="96"/>
+      <c r="G9" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="96"/>
+      <c r="G10" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="96"/>
+      <c r="G11" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D12" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="49"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="49"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="40.5">
+      <c r="E12" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="112"/>
+      <c r="E13" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7071,7 +7125,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7085,179 +7139,193 @@
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="H2" s="70" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="75" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="51" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="85.5">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="117" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="67.5">
-      <c r="A4" s="49"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="50" t="s">
+      <c r="E3" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="120" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="126" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="68.25" customHeight="1">
+      <c r="A4" s="96"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="96"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="96"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D5" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="49"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="E5" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="96"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="96"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="49"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="51" t="s">
+      <c r="E6" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="96"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="96"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="49"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="51" t="s">
+      <c r="E7" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="96"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="96"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="49"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="50" t="s">
+      <c r="E8" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="96"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25">
+      <c r="A9" s="96"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="96"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
+      <c r="A10" s="96"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D10" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="49"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="49"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="40.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="123"/>
+      <c r="E10" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="96"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="42.75">
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="112"/>
+      <c r="E11" s="122" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7331,13 +7399,13 @@
       <c r="B4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="90" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="21">
@@ -7360,10 +7428,10 @@
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="120" t="s">
+      <c r="N4" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="120" t="s">
+      <c r="O4" s="88" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7371,9 +7439,9 @@
       <c r="B5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="21">
         <v>0</v>
       </c>
@@ -7398,8 +7466,8 @@
       <c r="M5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
     </row>
     <row r="6" spans="2:15" ht="14.25">
       <c r="B6" s="21" t="s">
@@ -7561,11 +7629,11 @@
       <c r="H11" s="21">
         <v>12</v>
       </c>
-      <c r="I11" s="121" t="s">
+      <c r="I11" s="89" t="s">
         <v>58</v>
       </c>
       <c r="J11" s="21"/>
-      <c r="K11" s="121" t="s">
+      <c r="K11" s="89" t="s">
         <v>57</v>
       </c>
       <c r="L11" s="21" t="s">
@@ -7597,11 +7665,11 @@
       <c r="H12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="121"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="121"/>
+      <c r="K12" s="89"/>
       <c r="L12" s="21" t="s">
         <v>28</v>
       </c>

--- a/Tests/IHE8001 MODEチェック4機種.xlsx
+++ b/Tests/IHE8001 MODEチェック4機種.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\VoiceNavi\voice_navi_test\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29897507-7245-4E31-BF68-82216D99C528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EECA814-75F2-4F2E-B059-312334B8F4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FCDEBC5-A1B8-419C-8E9C-F2839559D4D0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{0FCDEBC5-A1B8-419C-8E9C-F2839559D4D0}"/>
   </bookViews>
   <sheets>
     <sheet name="MODE" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="5F1" sheetId="7" r:id="rId5"/>
     <sheet name="65CIH02（5F9）" sheetId="1" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
+    <sheet name="バイナリモード比較" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="228">
   <si>
     <t>IHE8001 チェック事項</t>
     <rPh sb="12" eb="14">
@@ -539,29 +540,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">100バイナリ制御 ３(負論理） </t>
-    <rPh sb="12" eb="13">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">110バイナリ制御 1(負論理） </t>
-    <rPh sb="12" eb="13">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>100予備</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">101バイナリ制御 A(負論理） </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>110バイナリ制御 1(正論理）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1105,10 +1084,6 @@
   </si>
   <si>
     <t>Renesas Flash Programmer V3.08.03にてソフトウェア書込で確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2W/5W　　（抵抗定数の変更で可能）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1951,36 +1926,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バイナリ制御３　　6650V2互換
-1-126; 20 ch 保持
-1 = 7Eh - SW1以外、全部押されている
-STOP: 7Fh or 00h
-バッファリング20ch 保持</t>
-  </si>
-  <si>
-    <t>バイナリ制御１
-1-250; 20 ch 保持
-BUSY LOW
-1 = FAh
-STOP: FFh or 00h
-バッファリング20ch 保持</t>
-  </si>
-  <si>
-    <t>バイナリ制御２
-1-250; 20 ch 保持
-BUSY LOW
-1 = 01h
-STOP: FFh or 00h
-バッファリング20ch 保持</t>
-  </si>
-  <si>
     <t>→WAV5A2/5F2と同じ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111バイナリ制御 2 (負論理） </t>
-  </si>
-  <si>
-    <t xml:space="preserve">111バイナリ制御 2(正論理） </t>
   </si>
   <si>
     <r>
@@ -2013,33 +1959,984 @@
 後入力切替再生と類似</t>
   </si>
   <si>
-    <t>負論理
-5F2の制御2と同じ。Ch: 254
-STOP: FFh, 00h
-WPJ内の音量選択あり</t>
-  </si>
-  <si>
-    <t>バイナリ制御2
-1-254; 20 ch 保持
-BUSY LOW
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>３</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>負論理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>負論理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正論理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>負論理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>負論理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正論理）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モード名称</t>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５A2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５F9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負論理 8bit</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負論理 7bit</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正論理 8bit</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stop command</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号レベル7F/FFh
+CH No=00</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110バイナリ制御 1(負論理） 5A2
+'111バイナリ制御 2 (負論理）5F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100バイナリ制御 ３(負論理） 5A2
+'101バイナリ制御 A(負論理） 5F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>111バイナリ制御 2(正論理）5A2
+'110バイナリ制御 1(正論理） 5F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号レベル FFh
+CH No=00</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号レベル FFh
+CH No=255</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号レベル 00h
+CH No=00</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負論理 8bit
+信号レベル FAh
+CH No=0１（05）～</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">負論理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と同じ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ch: 255</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">STOP: FFh, 00h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　（コマンドでのストップなし）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+WPJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内の音量選択あり</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御３　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6650V2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">互換
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1-126; 20 ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">保持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 = 7Eh - SW1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">以外、全部押されている
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">STOP: 7Fh </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or 00h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保持</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1
+1-254; 20 ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">保持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BUSY LOW
+1 = 01h
+STOP: 00h </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or FFh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保持</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2
+1-254; 20 ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">保持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BUSY LOW
+1 = FEh
+STOP: FFh </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or 00h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保持</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">バイナリ制御１
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1-250; 20 ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">保持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BUSY LOW
 1 = FAh
-STOP: FFh or 00h
-バッファリング20ch 保持</t>
-  </si>
-  <si>
-    <t>バイナリ制御1
-1-254; 20 ch 保持
-BUSY LOW
+STOP: FFh </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or 00h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保持</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">バイナリ制御２
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1-250; 20 ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">保持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BUSY LOW
 1 = 01h
-STOP: 00h or FFh
-バッファリング20ch 保持</t>
+STOP: FFh </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or 00h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保持</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/10/13 Check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2W/5W　　（抵抗定数の変更で可能）5W最大音量で１．２W切替確認</t>
+    <rPh sb="23" eb="25">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2174,8 +3071,53 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2218,8 +3160,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2420,13 +3368,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2613,6 +3578,117 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2691,6 +3767,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2700,123 +3821,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4807,7 +5814,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5105,11 +6112,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFE71ED-4794-434D-8B70-AFC9629A6BE2}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="8"/>
     <col min="2" max="2" width="8.88671875" style="18"/>
@@ -5118,57 +6125,57 @@
     <col min="5" max="7" width="43.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="C2" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="54">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>65</v>
@@ -5177,30 +6184,30 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A9" s="62" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="99" t="s">
+        <v>93</v>
       </c>
       <c r="B9" s="16">
         <v>1</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="104" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>33</v>
@@ -5208,16 +6215,16 @@
       <c r="F9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="62"/>
-    </row>
-    <row r="10" spans="1:7" ht="54">
-      <c r="A10" s="72"/>
+      <c r="G9" s="99"/>
+    </row>
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="109"/>
       <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>33</v>
@@ -5225,26 +6232,26 @@
       <c r="F10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="63"/>
-    </row>
-    <row r="11" spans="1:7" ht="81">
-      <c r="A11" s="63"/>
+      <c r="G10" s="100"/>
+    </row>
+    <row r="11" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="100"/>
       <c r="B11" s="26">
         <v>3</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="67.5">
-      <c r="A12" s="68" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="105" t="s">
+        <v>94</v>
       </c>
       <c r="B12" s="15">
         <v>4</v>
@@ -5253,7 +6260,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>33</v>
@@ -5263,24 +6270,24 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="67.5">
-      <c r="A13" s="69"/>
+    <row r="13" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="106"/>
       <c r="B13" s="15">
         <v>5</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="57" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B14" s="16">
         <v>6</v>
@@ -5289,7 +6296,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>33</v>
@@ -5301,9 +6308,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5">
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B15" s="15">
         <v>7</v>
@@ -5312,7 +6319,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>33</v>
@@ -5324,9 +6331,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="81">
+    <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B16" s="16">
         <v>8</v>
@@ -5347,9 +6354,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="94.5">
+    <row r="17" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A17" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B17" s="15">
         <v>9</v>
@@ -5370,9 +6377,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="94.5">
-      <c r="A18" s="66" t="s">
-        <v>103</v>
+    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="103" t="s">
+        <v>99</v>
       </c>
       <c r="B18" s="16">
         <v>10</v>
@@ -5381,18 +6388,18 @@
         <v>39</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="101" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="67.5">
-      <c r="A19" s="67"/>
+    <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="104"/>
       <c r="B19" s="16">
         <v>11</v>
       </c>
@@ -5401,14 +6408,14 @@
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-    </row>
-    <row r="20" spans="1:7" ht="108.75" customHeight="1">
-      <c r="A20" s="68" t="s">
-        <v>104</v>
+        <v>153</v>
+      </c>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+    </row>
+    <row r="20" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="105" t="s">
+        <v>100</v>
       </c>
       <c r="B20" s="15">
         <v>12</v>
@@ -5417,18 +6424,18 @@
         <v>41</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="70" t="s">
+      <c r="G20" s="107" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="67.5">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="106"/>
       <c r="B21" s="15">
         <v>13</v>
       </c>
@@ -5437,36 +6444,36 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-    </row>
-    <row r="24" spans="1:7">
+        <v>154</v>
+      </c>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F24" s="51"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F29" s="23"/>
     </row>
-    <row r="52" spans="5:5">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E52" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5491,13 +6498,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC51B83-83D2-4537-9B06-1FD4D3D4725D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="31"/>
     <col min="2" max="2" width="25.109375" customWidth="1"/>
@@ -5506,900 +6516,946 @@
     <col min="8" max="8" width="7.5546875" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="24.75">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="30">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="30">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="30">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>120</v>
-      </c>
       <c r="E7" s="41" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="30">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="30">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>122</v>
-      </c>
       <c r="D9" s="56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="30">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="30"/>
-    </row>
-    <row r="12" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="30">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="30">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="30">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="30">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C16" s="54" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="C17" s="55" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H17" s="52"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
+        <v>120</v>
+      </c>
+      <c r="C25" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
       <c r="H25" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="30">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
+      <c r="C26" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
       <c r="H26" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="30">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
+      <c r="C27" s="110" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
       <c r="H27" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="30">
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="C28" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
       <c r="H28" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="30">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
+      <c r="C29" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
       <c r="H29" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="30">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="30"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="C30" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="30">
         <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="30">
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="30"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="30">
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="30"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="30">
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="30">
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="30"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="30">
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="30"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="C36" s="111"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="30">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="C37" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="30">
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="C38" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="30">
         <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
+      <c r="C39" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
       <c r="H39" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="30">
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
+      <c r="C40" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
       <c r="H40" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="30">
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="30"/>
-    </row>
-    <row r="42" spans="1:8">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="30">
         <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
+      <c r="C42" s="110" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
       <c r="H42" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="30">
         <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="30"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="C43" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="30">
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
+      <c r="C44" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
       <c r="H44" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="30">
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="30"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="C45" s="110" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="30">
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
+      <c r="C46" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
       <c r="H46" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="30">
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="30"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="30">
         <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="30"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="30">
         <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="30"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="30">
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="30"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="30">
         <v>26</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="30"/>
-    </row>
-    <row r="52" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="30">
         <v>27</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="30"/>
-    </row>
-    <row r="53" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="30">
         <v>28</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="30"/>
-    </row>
-    <row r="54" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="C53" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="30">
         <v>29</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="30"/>
-    </row>
-    <row r="55" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="C54" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="30">
         <v>30</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="30"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="30">
         <v>31</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="30"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B59" s="44" t="s">
         <v>47</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B60" s="49" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="81"/>
+        <v>135</v>
+      </c>
+      <c r="D61" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="118"/>
       <c r="H61" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="82"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="84"/>
+        <v>177</v>
+      </c>
+      <c r="D62" s="119"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="121"/>
       <c r="H62" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" s="82"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="84"/>
+        <v>178</v>
+      </c>
+      <c r="D63" s="119"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="121"/>
       <c r="H63" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="85"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="87"/>
+        <v>179</v>
+      </c>
+      <c r="D64" s="122"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="123"/>
+      <c r="G64" s="124"/>
       <c r="H64" s="30" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -6440,8 +7496,8 @@
     <mergeCell ref="C36:G36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6453,11 +7509,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="31" customWidth="1"/>
@@ -6468,193 +7524,195 @@
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="81" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="91" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="67"/>
+      <c r="B3" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="114">
-      <c r="A4" s="96"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A4" s="67"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="57">
-      <c r="A5" s="96"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="103" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="91"/>
+        <v>184</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A5" s="67"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="62"/>
       <c r="E5" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57">
-      <c r="A6" s="96"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A6" s="67"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57">
-      <c r="A7" s="96"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A7" s="67"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="71.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="91" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="67"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="67"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="131"/>
+      <c r="G9" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="84.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="67"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="132"/>
+      <c r="G10" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="84.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="67"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="106" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="91" t="s">
+      <c r="D11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="85.5">
-      <c r="A10" s="96"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="105" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="85.5">
-      <c r="A11" s="96"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="57">
-      <c r="A12" s="110"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="112"/>
+      <c r="E11" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A12" s="74"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="75"/>
       <c r="E12" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="113"/>
+        <v>162</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="G12" s="98" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6663,8 +7721,8 @@
     <mergeCell ref="F8:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6675,11 +7733,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="31" customWidth="1"/>
@@ -6690,197 +7748,199 @@
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="25"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.75">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A4" s="47"/>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="114">
+        <v>182</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.15">
       <c r="A5" s="47"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="91" t="s">
+      <c r="B5" s="128"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57">
+        <v>184</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="104" t="s">
+      <c r="B6" s="128"/>
+      <c r="C6" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57">
+        <v>183</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.15">
       <c r="A7" s="47"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="104" t="s">
+      <c r="B7" s="128"/>
+      <c r="C7" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57">
+        <v>185</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.15">
       <c r="A8" s="47"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="104" t="s">
+      <c r="B8" s="128"/>
+      <c r="C8" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="47"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="71.25">
+      <c r="B9" s="128"/>
+      <c r="C9" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A10" s="47"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="104" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="91" t="s">
+      <c r="B10" s="128"/>
+      <c r="C10" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="105" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="120" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="85.5">
+      <c r="E10" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A11" s="47"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="91" t="s">
+      <c r="B11" s="128"/>
+      <c r="C11" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="105" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="120" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85.5">
+      <c r="E11" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A12" s="47"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="104" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="91" t="s">
+      <c r="B12" s="128"/>
+      <c r="C12" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="105" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="57">
+      <c r="E12" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="79"/>
+      <c r="G12" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="24"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="121" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="122" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="79"/>
+      <c r="G13" s="98" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6888,8 +7948,8 @@
     <mergeCell ref="B4:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6900,11 +7960,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="31" customWidth="1"/>
@@ -6915,196 +7975,198 @@
     <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="B3" s="93"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.75">
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="64"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A4" s="47"/>
-      <c r="B4" s="123" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="91" t="s">
+      <c r="B4" s="136" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="114">
+        <v>182</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.15">
       <c r="A5" s="47"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="91" t="s">
+      <c r="B5" s="128"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57">
+        <v>184</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="104" t="s">
+      <c r="B6" s="128"/>
+      <c r="C6" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57">
+        <v>183</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.15">
       <c r="A7" s="47"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="104" t="s">
+      <c r="B7" s="128"/>
+      <c r="C7" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57">
+      <c r="G7" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.15">
       <c r="A8" s="47"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="104" t="s">
+      <c r="B8" s="128"/>
+      <c r="C8" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="47"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="128"/>
+      <c r="C9" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="47"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="47"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="91" t="s">
+      <c r="E11" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="47"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="104" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="42.75">
+      <c r="E12" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="121" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="122" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="79"/>
+      <c r="G13" s="98" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7112,8 +8174,8 @@
     <mergeCell ref="B4:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7124,11 +8186,11 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
@@ -7139,193 +8201,195 @@
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="85.5">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="104" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="67"/>
+      <c r="B3" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="137" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="67"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="67"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="67"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="67"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="67"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="125" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="120" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="126" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="91" t="s">
+      <c r="E6" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="67"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="99" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="91" t="s">
+      <c r="E7" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="67"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="91" t="s">
+      <c r="E8" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="67"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="67"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="91" t="s">
+      <c r="E9" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="67"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="104" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="42.75">
-      <c r="A11" s="110"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="121" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="100"/>
+      <c r="E10" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="74"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="98" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7333,8 +8397,8 @@
     <mergeCell ref="B3:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7346,12 +8410,12 @@
       <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="15" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="14.25">
+    <row r="3" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
         <v>49</v>
       </c>
@@ -7395,17 +8459,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="14.25">
+    <row r="4" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="142" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="21">
@@ -7428,20 +8492,20 @@
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="140" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25">
+    <row r="5" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
       <c r="F5" s="21">
         <v>0</v>
       </c>
@@ -7466,10 +8530,10 @@
       <c r="M5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-    </row>
-    <row r="6" spans="2:15" ht="14.25">
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+    </row>
+    <row r="6" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>61</v>
       </c>
@@ -7513,7 +8577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="14.25">
+    <row r="7" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="21" t="s">
         <v>62</v>
       </c>
@@ -7531,7 +8595,7 @@
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15" ht="14.25">
+    <row r="8" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -7547,7 +8611,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="2:15" ht="14.25">
+    <row r="9" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -7563,7 +8627,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="2:15" ht="14.25">
+    <row r="10" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B10" s="21" t="s">
         <v>63</v>
       </c>
@@ -7607,7 +8671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="14.25">
+    <row r="11" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B11" s="21" t="s">
         <v>50</v>
       </c>
@@ -7629,11 +8693,11 @@
       <c r="H11" s="21">
         <v>12</v>
       </c>
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="141" t="s">
         <v>58</v>
       </c>
       <c r="J11" s="21"/>
-      <c r="K11" s="89" t="s">
+      <c r="K11" s="141" t="s">
         <v>57</v>
       </c>
       <c r="L11" s="21" t="s">
@@ -7643,7 +8707,7 @@
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="2:15" ht="14.25">
+    <row r="12" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B12" s="21" t="s">
         <v>51</v>
       </c>
@@ -7665,11 +8729,11 @@
       <c r="H12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="89"/>
+      <c r="I12" s="141"/>
       <c r="J12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="89"/>
+      <c r="K12" s="141"/>
       <c r="L12" s="21" t="s">
         <v>28</v>
       </c>
@@ -7683,7 +8747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="14.25">
+    <row r="13" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B13" s="21" t="s">
         <v>61</v>
       </c>
@@ -7709,7 +8773,7 @@
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25">
+    <row r="14" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="21" t="s">
         <v>62</v>
       </c>
@@ -7735,7 +8799,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="26" spans="11:11">
+    <row r="26" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K26" s="20"/>
     </row>
   </sheetData>
@@ -7753,4 +8817,224 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F028F4-7CE1-4D24-8989-B90A60436752}">
+  <dimension ref="B2:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="86"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="91" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+    </row>
+    <row r="6" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+    </row>
+    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B12" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="94"/>
+      <c r="H12" s="85"/>
+    </row>
+    <row r="13" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tests/IHE8001 MODEチェック4機種.xlsx
+++ b/Tests/IHE8001 MODEチェック4機種.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GITHUB\VoiceNavi\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EECA814-75F2-4F2E-B059-312334B8F4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A162E8-D735-4D1E-BA24-8DDC8E0DBF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{0FCDEBC5-A1B8-419C-8E9C-F2839559D4D0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{0FCDEBC5-A1B8-419C-8E9C-F2839559D4D0}"/>
   </bookViews>
   <sheets>
     <sheet name="MODE" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="5F1" sheetId="7" r:id="rId5"/>
     <sheet name="65CIH02（5F9）" sheetId="1" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
-    <sheet name="バイナリモード比較" sheetId="9" r:id="rId8"/>
+    <sheet name="SET MODE" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="214">
   <si>
     <t>IHE8001 チェック事項</t>
     <rPh sb="12" eb="14">
@@ -382,10 +382,6 @@
     <rPh sb="4" eb="8">
       <t>キシュセッテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW7 6</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -540,7 +536,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">100バイナリ制御 ３(負論理） </t>
+    <rPh sb="12" eb="13">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">111バイナリ制御 ２(正論理） </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">110バイナリ制御 1(負論理） </t>
+    <rPh sb="12" eb="13">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>100予備</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">101バイナリ制御 A(負論理） </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110バイナリ制御 1(正論理）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">111バイナリ制御 ２ (負論理） </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -689,6 +715,103 @@
     </rPh>
     <rPh sb="40" eb="44">
       <t>ユウセンショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御２</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+1-250　バッファリング20ｃｈ保持
+BUSY H
+１＝０１ｈ
+STOP:FFｈ
+SW8減音あり
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>減音大リセットＦＤｈ　中Bh　小FCｈは無し</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御１</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+1-250　バッファリング20ｃｈ保持
+BUSY L
+1＝ＦＡｈ
+STOP:FFｈ
+SW8減音あり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>減音大リセットＦＤｈ　中Bh　小FCｈは無し</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ゲンオン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -921,6 +1044,98 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>負論理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5A2の制御1と近い。Ｃｈ：255
+STOPなし（STOP入力のみ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング20ｃｈ保持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>減音なし</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>フロンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ALM</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -944,6 +1159,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>BOOＴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>MCU準備完了</t>
     <rPh sb="3" eb="5">
       <t>ジュンビ</t>
@@ -980,6 +1199,13 @@
     <t>USBメモリFLASH転送中</t>
     <rPh sb="11" eb="14">
       <t>テンソウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USBデータ不良</t>
+    <rPh sb="6" eb="8">
+      <t>フリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1067,6 +1293,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>c50mA+580ｍA≒650mA（机上計算）</t>
+    <rPh sb="18" eb="22">
+      <t>キジョウケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>30mA+300mA≒350ｍA（机上計算）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1084,6 +1317,10 @@
   </si>
   <si>
     <t>Renesas Flash Programmer V3.08.03にてソフトウェア書込で確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2W/5W　　（抵抗定数の変更で可能）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1117,6 +1354,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>OF 　ST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST 　OP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST　 ST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>本番</t>
     <rPh sb="0" eb="2">
       <t>ホンバン</t>
@@ -1132,7 +1381,76 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>インターバルタイマー有
+0ｓ
+30s
+60s
+120ｓ
+再生終了後タイマー動作
+動作中SW無視
+STOP有効</t>
+    <rPh sb="10" eb="11">
+      <t>アリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>シュウリョウゴ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ドウサチュウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>001後入力切替再生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正論理
+５A2の制御２となる。Ｃｈ：254
+STOP:00ｈ？
+バッファリング20ｃｈ保持
+減音なし</t>
+    <rPh sb="0" eb="3">
+      <t>セイロンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負論理
+５A2の制御1となる。Ｃｈ：255
+STOP:FFｈ？
+バッファリング20ｃｈ保持
+減音なし</t>
+    <rPh sb="0" eb="3">
+      <t>フロンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ホジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1142,6 +1460,29 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負論理
+5A2の制御1と近い。Ｃｈ：255
+STOPなし（STOP入力のみ）
+バッファリング20ｃｈ保持
+減音なし</t>
+    <rPh sb="0" eb="3">
+      <t>フロンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1506,160 +1847,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DIP-SWの減音はなし</t>
-    <rPh sb="7" eb="8">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→WAV5A2と同じ</t>
-    <rPh sb="8" eb="9">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STOPコマンドのコードが異なる
-→他はWAV5A2と同じ</t>
-    <rPh sb="13" eb="14">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ホカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　65CIH02（5F9基板使用）
-入力BIT数=12　　　　　　　　　　　　　　　　　　　　　　　　　
-SP出力は打合による8W⇒5W
-MODE1：通常再生
-MODE２：専用バイナリ
-・制御信号はすべて、チャッタ処理実データ15ms（仕様では7ms）
-・STBは立下り検出
-</t>
-    <rPh sb="126" eb="128">
-      <t>シンゴウ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ジツ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>タチサガ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>ケンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※LED点灯方法を修正 2021/10/6 Hi2</t>
-    <rPh sb="4" eb="6">
-      <t>テントウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5F1
-入力bit数 4</t>
-  </si>
-  <si>
-    <t>再生中　
-STOP 入力で再生停止 
-BUSY ON(L)</t>
-    <rPh sb="0" eb="3">
-      <t>サイセイチュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
+    <t>インターバルタイマ無
+ONESHOT only、レベル入力：リピート再生
+1回再生、リピート再生</t>
+    <rPh sb="46" eb="48">
       <t>サイセイ</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最上位biｔ(bit7）無視すれば
-→WAV5A2と同じ</t>
-    <rPh sb="0" eb="3">
-      <t>サイジョウイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ムシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※MCUのライフチェックとして、1秒程度の点滅でお願いします。</t>
-    <rPh sb="17" eb="18">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>◎点滅 500 ms</t>
-  </si>
-  <si>
-    <t>◎点滅 100 ms</t>
-  </si>
-  <si>
-    <t>FLASH ECC error</t>
-  </si>
-  <si>
-    <t>BOOT</t>
-  </si>
-  <si>
-    <t>USB File system error</t>
-  </si>
-  <si>
-    <t>OP 　CL</t>
-  </si>
-  <si>
-    <t>CL 　OP</t>
-  </si>
-  <si>
-    <t>CL　 CL</t>
-  </si>
-  <si>
-    <t>50mA+580ｍA≒650mA（机上計算）</t>
-  </si>
-  <si>
-    <t>インターバルタイマ無
-one-shot無
-SW入力中のみ繰り返し含み再生　SWが切れるとSTOP相当</t>
-  </si>
-  <si>
-    <t>インターバルタイマ無
-one-shot: 1回再生
-レベル入力：リピート再生</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -1669,51 +1863,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>one-shot only、レベル入力：なし</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-SW入力中のみ繰り返し含み再生　SWが切れるとSTOP相当</t>
-    </r>
-  </si>
-  <si>
-    <t>インターバルタイマー有
-0 s
-30 s
-60 s
-120 s
-再生終了後タイマー動作
-動作中SW無視
-STOP有効</t>
-  </si>
-  <si>
-    <t>インターバルタイマ無
-one-shot　1回　Levelリピート連続
-即座に変更
-優先処理 SW1 &gt; SW2 &gt; SW3 &gt; … &gt; SWn</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="HGPｺﾞｼｯｸM"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>負論理</t>
+      <t>ONESHOT only、レベル入力：なし</t>
     </r>
     <r>
       <rPr>
@@ -1724,8 +1879,45 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+SW入力中のみ繰り返し含み再生　SWが切れるとSTOP相当</t>
     </r>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチュウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ソウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIP-SWの減音はなし</t>
+    <rPh sb="7" eb="8">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1734,64 +1926,34 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>5A2の制御1と近い。Ｃｈ：255
-STOPなし（STOP入力のみ）</t>
+      <t>バイナリ制御３　</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">　6650V2互換
+1-127　20ｃｈ保持
+１＝７Ｅｈ
+STOP:７Fh
 </t>
     </r>
     <r>
       <rPr>
         <strike/>
         <sz val="11"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="HGPｺﾞｼｯｸM"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>バッファリング20ｃｈ保持</t>
+      <t>SW8減音なし</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>減音なし</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>フロンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
+    <rPh sb="28" eb="30">
       <t>ホジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1826,7 +1988,7 @@
       <rPr>
         <strike/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="HGPｺﾞｼｯｸM"/>
         <family val="3"/>
         <charset val="128"/>
@@ -1863,70 +2025,71 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御２</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-1-250　バッファリング20ｃｈ保持
-BUSY H
-１＝０１ｈ
-STOP:FFｈ
+    <t>→WAV5A2と同じ</t>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STOPコマンドのコードが異なる
+→他はWAV5A2と同じ</t>
+    <rPh sb="13" eb="14">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→WAV5A2/５F2と同じ</t>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　65CIH02（5F9基板使用）
+入力BIT数=12　　　　　　　　　　　　　　　　　　　　　　　　　
+SP出力は打合による8W⇒5W
+MODE1：通常再生
+MODE２：専用バイナリ
+・制御信号はすべて、チャッタ処理実データ15ms（仕様では7ms）
+・STBは立下り検出
 </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>SW8減音あり</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>減音大リセットＦＤｈ　中Bh　小FCｈは無し</t>
-    </r>
+    <rPh sb="126" eb="128">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>タチサガ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※LED点灯方法を修正 2021/10/6 Hi2</t>
     <rPh sb="4" eb="6">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→WAV5A2/5F2と同じ</t>
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -1937,8 +2100,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">納入仕様書 WAV5F9-IH00.pdf
 65CIH02仕様書_IUK.PDF
@@ -1947,988 +2111,155 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>両方を参照のこと
 接点12bit</t>
     </r>
   </si>
   <si>
-    <t>→WAV5A2/5F2
+    <t>→WAV5A2/５F2
 後入力切替再生と類似</t>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>３</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>負論理）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
     <rPh sb="12" eb="13">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>負論理）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <rPh sb="12" eb="13">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>正論理）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>101</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> A(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>負論理）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>負論理）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>正論理）</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モード名称</t>
-    <rPh sb="3" eb="5">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>５A2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>５F2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>５F9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>負論理 8bit</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ロンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>負論理 7bit</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ロンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正論理 8bit</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ロンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>stop command</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>信号レベル7F/FFh
-CH No=00</t>
+      <t>アト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ルイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5F1
+入力bit数 4</t>
+  </si>
+  <si>
+    <t>再生中　
+STOP 入力で再生停止 
+BUSY ON(L)</t>
+    <rPh sb="0" eb="3">
+      <t>サイセイチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最上位biｔ(bit7）無視すれば
+→WAV5A2と同じ</t>
+    <rPh sb="0" eb="3">
+      <t>サイジョウイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※MCUのライフチェックとして、1秒程度の点滅でお願いします。</t>
+    <rPh sb="17" eb="18">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5F1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5A2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65CIH02（5F9）</t>
+  </si>
+  <si>
+    <t>特注再生モード読み込み他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムローダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JP1　OPEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JP1　CLOSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW7 6　SW8-7に変更1115</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ON:Short</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OFF:OPEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（MS1）</t>
+  </si>
+  <si>
+    <t>（MS2）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三協　SW内容</t>
     <rPh sb="0" eb="2">
-      <t>シンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>110バイナリ制御 1(負論理） 5A2
-'111バイナリ制御 2 (負論理）5F2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>100バイナリ制御 ３(負論理） 5A2
-'101バイナリ制御 A(負論理） 5F2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>111バイナリ制御 2(正論理）5A2
-'110バイナリ制御 1(正論理） 5F2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>信号レベル FFh
-CH No=00</t>
-    <rPh sb="0" eb="2">
-      <t>シンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>信号レベル FFh
-CH No=255</t>
-    <rPh sb="0" eb="2">
-      <t>シンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>信号レベル 00h
-CH No=00</t>
-    <rPh sb="0" eb="2">
-      <t>シンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>負論理 8bit
-信号レベル FAh
-CH No=0１（05）～</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ロンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">負論理
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5F2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と同じ。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ch: 255</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">STOP: FFh, 00h </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　（コマンドでのストップなし）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-WPJ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>内の音量選択あり</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御３　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6650V2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">互換
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1-126; 20 ch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">保持
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 = 7Eh - SW1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">以外、全部押されている
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">STOP: 7Fh </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>or 00h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バッファリング</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20ch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>保持</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1
-1-254; 20 ch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">保持
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">BUSY LOW
-1 = 01h
-STOP: 00h </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>or FFh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バッファリング</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20ch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>保持</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2
-1-254; 20 ch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">保持
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">BUSY LOW
-1 = FEh
-STOP: FFh </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>or 00h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バッファリング</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20ch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>保持</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">バイナリ制御１
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1-250; 20 ch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">保持
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">BUSY LOW
-1 = FAh
-STOP: FFh </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>or 00h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バッファリング</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20ch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>保持</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">バイナリ制御２
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1-250; 20 ch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">保持
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">BUSY LOW
-1 = 01h
-STOP: FFh </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>or 00h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バッファリング</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20ch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>保持</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/10/13 Check</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2W/5W　　（抵抗定数の変更で可能）5W最大音量で１．２W切替確認</t>
-    <rPh sb="23" eb="25">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>オンリョウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>キリカエ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OK</t>
+      <t>サンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IHE　SW内容</t>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2936,7 +2267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2995,6 +2326,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF9933"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="HGPｺﾞｼｯｸM"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3008,6 +2353,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="HGPｺﾞｼｯｸM"/>
       <family val="3"/>
@@ -3015,109 +2375,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
-      <name val="HGPｺﾞｼｯｸM"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="HGPｺﾞｼｯｸM"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <name val="HGPｺﾞｼｯｸM"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="HGPｺﾞｼｯｸM"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="HGPｺﾞｼｯｸM"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3160,14 +2424,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3368,30 +2626,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3470,6 +2711,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3515,9 +2762,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3533,12 +2786,39 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3554,140 +2834,50 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3725,6 +2915,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3734,82 +2951,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3819,6 +3021,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5515,7 +4729,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>33251</xdr:rowOff>
+      <xdr:rowOff>62559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5545,8 +4759,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7802441" y="534133"/>
-          <a:ext cx="2171700" cy="2202753"/>
+          <a:off x="17659351" y="542925"/>
+          <a:ext cx="2171700" cy="2234259"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5748,6 +4962,61 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3731559</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3752850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1187823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40064F3F-71DF-44AE-B06C-A83400D29FC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7274859" y="11687175"/>
+          <a:ext cx="3774141" cy="1149723"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6112,11 +5381,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFE71ED-4794-434D-8B70-AFC9629A6BE2}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="8"/>
     <col min="2" max="2" width="8.88671875" style="18"/>
@@ -6125,89 +5394,89 @@
     <col min="5" max="7" width="43.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="9"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="9"/>
       <c r="C2" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="9"/>
       <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54">
+      <c r="A8" s="31" t="s">
+        <v>108</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="99" t="s">
-        <v>93</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="50.25" customHeight="1">
+      <c r="A9" s="82" t="s">
+        <v>100</v>
       </c>
       <c r="B9" s="16">
         <v>1</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>82</v>
+      <c r="D9" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>33</v>
@@ -6215,16 +5484,16 @@
       <c r="F9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="99"/>
-    </row>
-    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="109"/>
+      <c r="G9" s="82"/>
+    </row>
+    <row r="10" spans="1:7" ht="54">
+      <c r="A10" s="92"/>
       <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="34" t="s">
-        <v>83</v>
+      <c r="C10" s="87"/>
+      <c r="D10" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>33</v>
@@ -6232,26 +5501,26 @@
       <c r="F10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="100"/>
-    </row>
-    <row r="11" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="100"/>
-      <c r="B11" s="26">
+      <c r="G10" s="83"/>
+    </row>
+    <row r="11" spans="1:7" ht="94.5">
+      <c r="A11" s="83"/>
+      <c r="B11" s="28">
         <v>3</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="34"/>
+      <c r="C11" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="36"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="105" t="s">
-        <v>94</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="67.5">
+      <c r="A12" s="88" t="s">
+        <v>101</v>
       </c>
       <c r="B12" s="15">
         <v>4</v>
@@ -6260,7 +5529,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>33</v>
@@ -6270,24 +5539,24 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="106"/>
+    <row r="13" spans="1:7" ht="67.5">
+      <c r="A13" s="89"/>
       <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>103</v>
+      <c r="C13" s="40" t="s">
+        <v>110</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32" t="s">
-        <v>95</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57" customHeight="1">
+      <c r="A14" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="B14" s="16">
         <v>6</v>
@@ -6295,8 +5564,8 @@
       <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>84</v>
+      <c r="D14" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>33</v>
@@ -6304,13 +5573,13 @@
       <c r="F14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="29" t="s">
-        <v>96</v>
+    <row r="15" spans="1:7" ht="40.5">
+      <c r="A15" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="B15" s="15">
         <v>7</v>
@@ -6319,7 +5588,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>33</v>
@@ -6327,13 +5596,13 @@
       <c r="F15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A16" s="32" t="s">
-        <v>97</v>
+    <row r="16" spans="1:7" ht="81">
+      <c r="A16" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="B16" s="16">
         <v>8</v>
@@ -6341,22 +5610,22 @@
       <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="27" t="s">
+      <c r="D16" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="29" t="s">
-        <v>98</v>
+    <row r="17" spans="1:7" ht="94.5">
+      <c r="A17" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="B17" s="15">
         <v>9</v>
@@ -6364,22 +5633,22 @@
       <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="103" t="s">
-        <v>99</v>
+    <row r="18" spans="1:7" ht="94.5">
+      <c r="A18" s="86" t="s">
+        <v>106</v>
       </c>
       <c r="B18" s="16">
         <v>10</v>
@@ -6387,35 +5656,35 @@
       <c r="C18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>188</v>
+      <c r="D18" s="37" t="s">
+        <v>91</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="101" t="s">
+      <c r="F18" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="101" t="s">
+      <c r="G18" s="84" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="104"/>
+    <row r="19" spans="1:7" ht="67.5">
+      <c r="A19" s="87"/>
       <c r="B19" s="16">
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="37"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-    </row>
-    <row r="20" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="105" t="s">
-        <v>100</v>
+        <v>172</v>
+      </c>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+    </row>
+    <row r="20" spans="1:7" ht="108.75" customHeight="1">
+      <c r="A20" s="88" t="s">
+        <v>107</v>
       </c>
       <c r="B20" s="15">
         <v>12</v>
@@ -6423,19 +5692,19 @@
       <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="35" t="s">
-        <v>189</v>
+      <c r="D20" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="107" t="s">
+      <c r="F20" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="107" t="s">
+      <c r="G20" s="90" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="106"/>
+    <row r="21" spans="1:7" ht="67.5">
+      <c r="A21" s="89"/>
       <c r="B21" s="15">
         <v>13</v>
       </c>
@@ -6444,36 +5713,36 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F24" s="51"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="F24" s="64"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="F29" s="23"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:5">
       <c r="E52" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6498,991 +5767,904 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC51B83-83D2-4537-9B06-1FD4D3D4725D}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A3:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="8.88671875" style="33"/>
     <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.75">
+      <c r="A4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="32">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="C6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="32">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="32">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="32">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="32">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="32">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="32">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="32">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="32">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="65"/>
+      <c r="C17" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="30">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="30">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="30">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="30"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="30">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="30"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="30">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="30">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="30"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="30">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="30">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="30">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="30">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="30"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="30">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C16" s="54" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="C17" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" s="52"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="114" t="s">
+      <c r="B25" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="30">
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="32">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="110" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="30">
+      <c r="C26" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="32">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="30">
+      <c r="C27" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="32">
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="30">
+      <c r="C28" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="32">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="30">
+      <c r="C29" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="32">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="30">
+      <c r="C30" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="32">
         <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="30">
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="32">
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="30">
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="32">
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="30">
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="32">
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="30">
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="32"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="32">
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="30">
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="32"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="32">
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="30">
+      <c r="C36" s="103"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="32">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="110" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="30">
+      <c r="C37" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="32">
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="30">
+      <c r="C38" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="32"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="32">
         <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="30">
+      <c r="C39" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="32">
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="30">
+      <c r="C40" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="32">
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="30">
+      <c r="C41" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="32">
         <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="110" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="30">
+      <c r="C42" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="32">
         <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="30">
+      <c r="C43" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="32">
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="30">
+      <c r="C44" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="32">
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="110" t="s">
-        <v>226</v>
-      </c>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="30">
+      <c r="C45" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="32"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="32">
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="30">
+      <c r="C46" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="32">
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="30">
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="32">
         <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="30">
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="32"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="32">
         <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="30">
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="32">
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="30">
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="32"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="32">
         <v>26</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="30">
+        <v>162</v>
+      </c>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="32"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="32">
         <v>27</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="30">
+        <v>163</v>
+      </c>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="32"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="32">
         <v>28</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="110" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="30">
+        <v>164</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="32"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="32">
         <v>29</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="110" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="30">
+        <v>165</v>
+      </c>
+      <c r="C54" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="32"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="32">
         <v>30</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="110"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="110"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="110"/>
-      <c r="H55" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="30">
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="32"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="32">
         <v>31</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B59" s="44" t="s">
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="32"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B60" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C59" s="50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="97"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="97"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B62" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="119"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="119"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="121"/>
-      <c r="H63" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B64" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D64" s="122"/>
-      <c r="E64" s="123"/>
-      <c r="F64" s="123"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="30" t="s">
-        <v>132</v>
+      <c r="D64" s="100"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="32" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D61:G64"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C38:G38"/>
@@ -7492,12 +6674,35 @@
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="D61:G64"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7509,220 +6714,185 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9" style="33" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="33" customWidth="1"/>
     <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="62" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="81" customHeight="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="110"/>
+    </row>
+    <row r="4" spans="1:7" ht="108">
+      <c r="A4" s="51"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="110"/>
+    </row>
+    <row r="5" spans="1:7" ht="40.5">
+      <c r="A5" s="51"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="110"/>
+    </row>
+    <row r="6" spans="1:7" ht="54">
+      <c r="A6" s="51"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="110"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.5">
+      <c r="A7" s="51"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="110"/>
+    </row>
+    <row r="8" spans="1:7" ht="67.5">
+      <c r="A8" s="51"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="110"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="51"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="115"/>
+      <c r="G9" s="110"/>
+    </row>
+    <row r="10" spans="1:7" ht="94.5">
+      <c r="A10" s="51"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="62" t="s">
+      <c r="F10" s="116"/>
+      <c r="G10" s="111"/>
+    </row>
+    <row r="11" spans="1:7" ht="94.5">
+      <c r="A11" s="51"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.15">
-      <c r="A6" s="67"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.15">
-      <c r="A7" s="67"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="59" t="s">
+      <c r="E11" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="112"/>
+    </row>
+    <row r="12" spans="1:7" ht="40.5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="67"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="F8" s="130" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="67"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="131"/>
-      <c r="G9" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="84.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="67"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="132"/>
-      <c r="G10" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="84.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="98" t="s">
-        <v>227</v>
-      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G11"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="F8:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7733,223 +6903,202 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9" style="33" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="33" customWidth="1"/>
     <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="25"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="127" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.5">
+      <c r="A4" s="51"/>
+      <c r="B4" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.15">
-      <c r="A5" s="47"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="62" t="s">
+      <c r="E4" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="119"/>
+    </row>
+    <row r="5" spans="1:7" ht="108">
+      <c r="A5" s="51"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.15">
-      <c r="A6" s="47"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="71" t="s">
+      <c r="E5" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="119"/>
+    </row>
+    <row r="6" spans="1:7" ht="67.5">
+      <c r="A6" s="51"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="119"/>
+    </row>
+    <row r="7" spans="1:7" ht="54">
+      <c r="A7" s="51"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="71" t="s">
+      <c r="E7" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="119"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.5">
+      <c r="A8" s="51"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="62" t="s">
+      <c r="E8" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="119"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="51"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="119"/>
+    </row>
+    <row r="10" spans="1:7" ht="94.5">
+      <c r="A10" s="51"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E10" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="119"/>
+    </row>
+    <row r="11" spans="1:7" ht="67.5">
+      <c r="A11" s="51"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="120"/>
+    </row>
+    <row r="12" spans="1:7" ht="67.5">
+      <c r="A12" s="51"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="121"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.5">
+      <c r="A13" s="24"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="47"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="47"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="F10" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>222</v>
-      </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="98" t="s">
-        <v>227</v>
-      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G4:G12"/>
     <mergeCell ref="B4:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7960,222 +7109,193 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9" style="33" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="33" customWidth="1"/>
     <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="64"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="133" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="62" t="s">
+    <row r="4" spans="1:7" ht="40.5">
+      <c r="A4" s="51"/>
+      <c r="B4" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.15">
-      <c r="A5" s="47"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="62" t="s">
+      <c r="E4" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="119"/>
+    </row>
+    <row r="5" spans="1:7" ht="108">
+      <c r="A5" s="51"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.15">
-      <c r="A6" s="47"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="71" t="s">
+      <c r="E5" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="119"/>
+    </row>
+    <row r="6" spans="1:7" ht="67.5">
+      <c r="A6" s="51"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="119"/>
+    </row>
+    <row r="7" spans="1:7" ht="54">
+      <c r="A7" s="51"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="71" t="s">
+      <c r="E7" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="119"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.5">
+      <c r="A8" s="51"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="62" t="s">
+      <c r="E8" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="119"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="51"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="47"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="62" t="s">
+      <c r="E9" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="119"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="51"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="47"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="62" t="s">
+      <c r="E10" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="119"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="51"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="62" t="s">
+      <c r="E11" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="120"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="51"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="E12" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="121"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="98" t="s">
-        <v>227</v>
-      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G4:G12"/>
     <mergeCell ref="B4:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8184,13 +7304,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
@@ -8201,195 +7321,149 @@
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="62" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="75" customHeight="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="E3" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="124" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="67.5">
+      <c r="A4" s="51"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="95" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="71" t="s">
+      <c r="E4" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="51"/>
+      <c r="G4" s="125"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="51"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="125"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="51"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="125"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="51"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="125"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="51"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="125"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="51"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D9" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="67"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="71" t="s">
+      <c r="E9" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="125"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="51"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="67"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="67"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="67"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="67"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="82" t="s">
+      <c r="E10" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="98" t="s">
-        <v>227</v>
-      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="126"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8397,8 +7471,8 @@
     <mergeCell ref="B3:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8410,14 +7484,14 @@
       <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="15" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15" ht="14.25">
       <c r="B3" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="21">
         <v>1</v>
@@ -8459,18 +7533,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15" ht="14.25">
       <c r="B4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="141" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="142" t="s">
-        <v>52</v>
+      <c r="E4" s="129" t="s">
+        <v>51</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
@@ -8492,20 +7566,20 @@
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="140" t="s">
+      <c r="N4" s="127" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="140" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="2:15" ht="14.25">
       <c r="B5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
+        <v>50</v>
+      </c>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="129"/>
       <c r="F5" s="21">
         <v>0</v>
       </c>
@@ -8525,17 +7599,17 @@
         <v>5</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-    </row>
-    <row r="6" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+    </row>
+    <row r="6" spans="2:15" ht="14.25">
       <c r="B6" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="21">
         <v>3</v>
@@ -8577,9 +7651,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" ht="14.25">
       <c r="B7" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -8595,7 +7669,7 @@
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" ht="14.25">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -8611,7 +7685,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" ht="14.25">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -8627,9 +7701,9 @@
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15" ht="14.25">
       <c r="B10" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="21">
         <v>1</v>
@@ -8671,9 +7745,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15" ht="14.25">
       <c r="B11" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="21">
         <v>7</v>
@@ -8693,23 +7767,23 @@
       <c r="H11" s="21">
         <v>12</v>
       </c>
-      <c r="I11" s="141" t="s">
-        <v>58</v>
+      <c r="I11" s="128" t="s">
+        <v>57</v>
       </c>
       <c r="J11" s="21"/>
-      <c r="K11" s="141" t="s">
-        <v>57</v>
+      <c r="K11" s="128" t="s">
+        <v>56</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15" ht="14.25">
       <c r="B12" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="21">
         <v>6</v>
@@ -8729,11 +7803,11 @@
       <c r="H12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="141"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="141"/>
+      <c r="K12" s="128"/>
       <c r="L12" s="21" t="s">
         <v>28</v>
       </c>
@@ -8747,9 +7821,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15" ht="14.25">
       <c r="B13" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="21">
         <v>11</v>
@@ -8773,9 +7847,9 @@
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15" ht="14.25">
       <c r="B14" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -8799,7 +7873,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="11:11">
       <c r="K26" s="20"/>
     </row>
   </sheetData>
@@ -8820,221 +7894,303 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F028F4-7CE1-4D24-8989-B90A60436752}">
-  <dimension ref="B2:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E15240-D5D1-428C-9CF5-C18285C44A13}">
+  <dimension ref="C2:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="11" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="86" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="86"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
+    <row r="2" spans="3:11">
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11">
+      <c r="C3" s="1"/>
+      <c r="D3" s="77">
+        <v>6</v>
+      </c>
+      <c r="E3" s="77">
+        <v>7</v>
+      </c>
+      <c r="F3" s="77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" ht="27">
+      <c r="C4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="27">
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" ht="27">
+      <c r="C6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D6" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="27">
+      <c r="C7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D7" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="131" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="1"/>
+      <c r="D12" s="77">
+        <v>6</v>
+      </c>
+      <c r="E12" s="75">
+        <v>7</v>
+      </c>
+      <c r="F12" s="75">
+        <v>8</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="79">
+        <v>7</v>
+      </c>
+      <c r="J12" s="79">
+        <v>8</v>
+      </c>
+      <c r="K12" s="80"/>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="H13" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="I13" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="J13" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="I14" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="C15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="J15" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="K15" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="G17" s="40" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B5" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="I17" s="40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="G18" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-    </row>
-    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" s="94"/>
-      <c r="H12" s="85"/>
-    </row>
-    <row r="13" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E11:H11"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tests/IHE8001 MODEチェック4機種.xlsx
+++ b/Tests/IHE8001 MODEチェック4機種.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GITHUB\VoiceNavi\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A162E8-D735-4D1E-BA24-8DDC8E0DBF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EECA814-75F2-4F2E-B059-312334B8F4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{0FCDEBC5-A1B8-419C-8E9C-F2839559D4D0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{0FCDEBC5-A1B8-419C-8E9C-F2839559D4D0}"/>
   </bookViews>
   <sheets>
     <sheet name="MODE" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="5F1" sheetId="7" r:id="rId5"/>
     <sheet name="65CIH02（5F9）" sheetId="1" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
-    <sheet name="SET MODE" sheetId="9" r:id="rId8"/>
+    <sheet name="バイナリモード比較" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="228">
   <si>
     <t>IHE8001 チェック事項</t>
     <rPh sb="12" eb="14">
@@ -385,6 +385,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>SW7 6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>TB1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -536,37 +540,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">100バイナリ制御 ３(負論理） </t>
-    <rPh sb="12" eb="13">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">111バイナリ制御 ２(正論理） </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">110バイナリ制御 1(負論理） </t>
-    <rPh sb="12" eb="13">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>100予備</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">101バイナリ制御 A(負論理） </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>110バイナリ制御 1(正論理）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">111バイナリ制御 ２ (負論理） </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -715,103 +689,6 @@
     </rPh>
     <rPh sb="40" eb="44">
       <t>ユウセンショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御２</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-1-250　バッファリング20ｃｈ保持
-BUSY H
-１＝０１ｈ
-STOP:FFｈ
-SW8減音あり
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>減音大リセットＦＤｈ　中Bh　小FCｈは無し</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御１</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-1-250　バッファリング20ｃｈ保持
-BUSY L
-1＝ＦＡｈ
-STOP:FFｈ
-SW8減音あり</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>減音大リセットＦＤｈ　中Bh　小FCｈは無し</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ゲンオン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1044,98 +921,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>負論理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>5A2の制御1と近い。Ｃｈ：255
-STOPなし（STOP入力のみ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バッファリング20ｃｈ保持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>減音なし</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>フロンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ALM</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1159,10 +944,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BOOＴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MCU準備完了</t>
     <rPh sb="3" eb="5">
       <t>ジュンビ</t>
@@ -1199,13 +980,6 @@
     <t>USBメモリFLASH転送中</t>
     <rPh sb="11" eb="14">
       <t>テンソウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USBデータ不良</t>
-    <rPh sb="6" eb="8">
-      <t>フリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1293,13 +1067,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>c50mA+580ｍA≒650mA（机上計算）</t>
-    <rPh sb="18" eb="22">
-      <t>キジョウケイサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>30mA+300mA≒350ｍA（机上計算）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1317,10 +1084,6 @@
   </si>
   <si>
     <t>Renesas Flash Programmer V3.08.03にてソフトウェア書込で確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2W/5W　　（抵抗定数の変更で可能）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1354,18 +1117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OF 　ST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ST 　OP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ST　 ST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本番</t>
     <rPh sb="0" eb="2">
       <t>ホンバン</t>
@@ -1381,76 +1132,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インターバルタイマー有
-0ｓ
-30s
-60s
-120ｓ
-再生終了後タイマー動作
-動作中SW無視
-STOP有効</t>
-    <rPh sb="10" eb="11">
-      <t>アリ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>シュウリョウゴ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t>ドウサチュウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ムシ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>コウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>001後入力切替再生</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正論理
-５A2の制御２となる。Ｃｈ：254
-STOP:00ｈ？
-バッファリング20ｃｈ保持
-減音なし</t>
-    <rPh sb="0" eb="3">
-      <t>セイロンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>負論理
-５A2の制御1となる。Ｃｈ：255
-STOP:FFｈ？
-バッファリング20ｃｈ保持
-減音なし</t>
-    <rPh sb="0" eb="3">
-      <t>フロンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ホジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1460,29 +1142,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>サイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>負論理
-5A2の制御1と近い。Ｃｈ：255
-STOPなし（STOP入力のみ）
-バッファリング20ｃｈ保持
-減音なし</t>
-    <rPh sb="0" eb="3">
-      <t>フロンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ホジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1847,180 +1506,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インターバルタイマ無
-ONESHOT only、レベル入力：リピート再生
-1回再生、リピート再生</t>
-    <rPh sb="46" eb="48">
-      <t>サイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">インターバルタイマ無
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ONESHOT only、レベル入力：なし</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-SW入力中のみ繰り返し含み再生　SWが切れるとSTOP相当</t>
-    </r>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチュウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ソウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DIP-SWの減音はなし</t>
     <rPh sb="7" eb="8">
       <t>ゲン</t>
     </rPh>
     <rPh sb="8" eb="9">
       <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御３　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">　6650V2互換
-1-127　20ｃｈ保持
-１＝７Ｅｈ
-STOP:７Fh
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>SW8減音なし</t>
-    </r>
-    <rPh sb="28" eb="30">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイナリ制御１</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-1-250　バッファリング20ｃｈ保持
-BUSY L
-1＝ＦＡｈ
-STOP:FFｈ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>SW8減音あり</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>減音大リセットＦＤｈ　中Bh　小FCｈは無し</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ゲンオン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2039,13 +1530,6 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>ホカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→WAV5A2/５F2と同じ</t>
-    <rPh sb="12" eb="13">
-      <t>オナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2092,54 +1576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">5F9
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">納入仕様書 WAV5F9-IH00.pdf
-65CIH02仕様書_IUK.PDF
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="HGPｺﾞｼｯｸM"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>両方を参照のこと
-接点12bit</t>
-    </r>
-  </si>
-  <si>
-    <t>→WAV5A2/５F2
-後入力切替再生と類似</t>
-    <rPh sb="12" eb="13">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キリカエ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ルイジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5F1
 入力bit数 4</t>
   </si>
@@ -2189,77 +1625,1310 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5F1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5A2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>65CIH02（5F9）</t>
-  </si>
-  <si>
-    <t>特注再生モード読み込み他</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラムローダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JP1　OPEN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JP1　CLOSE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW7 6　SW8-7に変更1115</t>
-    <rPh sb="12" eb="14">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OFF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ON</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ON:Short</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OFF:OPEN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（MS1）</t>
-  </si>
-  <si>
-    <t>（MS2）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三協　SW内容</t>
+    <t>◎点滅 500 ms</t>
+  </si>
+  <si>
+    <t>◎点滅 100 ms</t>
+  </si>
+  <si>
+    <t>FLASH ECC error</t>
+  </si>
+  <si>
+    <t>BOOT</t>
+  </si>
+  <si>
+    <t>USB File system error</t>
+  </si>
+  <si>
+    <t>OP 　CL</t>
+  </si>
+  <si>
+    <t>CL 　OP</t>
+  </si>
+  <si>
+    <t>CL　 CL</t>
+  </si>
+  <si>
+    <t>50mA+580ｍA≒650mA（机上計算）</t>
+  </si>
+  <si>
+    <t>インターバルタイマ無
+one-shot無
+SW入力中のみ繰り返し含み再生　SWが切れるとSTOP相当</t>
+  </si>
+  <si>
+    <t>インターバルタイマ無
+one-shot: 1回再生
+レベル入力：リピート再生</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">インターバルタイマ無
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>one-shot only、レベル入力：なし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+SW入力中のみ繰り返し含み再生　SWが切れるとSTOP相当</t>
+    </r>
+  </si>
+  <si>
+    <t>インターバルタイマー有
+0 s
+30 s
+60 s
+120 s
+再生終了後タイマー動作
+動作中SW無視
+STOP有効</t>
+  </si>
+  <si>
+    <t>インターバルタイマ無
+one-shot　1回　Levelリピート連続
+即座に変更
+優先処理 SW1 &gt; SW2 &gt; SW3 &gt; … &gt; SWn</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>負論理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5A2の制御1と近い。Ｃｈ：255
+STOPなし（STOP入力のみ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング20ｃｈ保持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>減音なし</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>フロンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御１</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+1-250　バッファリング20ｃｈ保持
+BUSY L
+1＝ＦＡｈ
+STOP:FFｈ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SW8減音あり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>減音大リセットＦＤｈ　中Bh　小FCｈは無し</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ゲンオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御２</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+1-250　バッファリング20ｃｈ保持
+BUSY H
+１＝０１ｈ
+STOP:FFｈ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SW8減音あり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>減音大リセットＦＤｈ　中Bh　小FCｈは無し</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→WAV5A2/5F2と同じ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5F9
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">納入仕様書 WAV5F9-IH00.pdf
+65CIH02仕様書_IUK.PDF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>両方を参照のこと
+接点12bit</t>
+    </r>
+  </si>
+  <si>
+    <t>→WAV5A2/5F2
+後入力切替再生と類似</t>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>３</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>負論理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>負論理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正論理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>負論理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>負論理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正論理）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モード名称</t>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５A2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５F9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負論理 8bit</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負論理 7bit</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正論理 8bit</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stop command</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号レベル7F/FFh
+CH No=00</t>
     <rPh sb="0" eb="2">
-      <t>サンキョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IHE　SW内容</t>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110バイナリ制御 1(負論理） 5A2
+'111バイナリ制御 2 (負論理）5F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100バイナリ制御 ３(負論理） 5A2
+'101バイナリ制御 A(負論理） 5F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>111バイナリ制御 2(正論理）5A2
+'110バイナリ制御 1(正論理） 5F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号レベル FFh
+CH No=00</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号レベル FFh
+CH No=255</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号レベル 00h
+CH No=00</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負論理 8bit
+信号レベル FAh
+CH No=0１（05）～</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">負論理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と同じ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ch: 255</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">STOP: FFh, 00h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　（コマンドでのストップなし）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+WPJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内の音量選択あり</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御３　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6650V2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">互換
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1-126; 20 ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">保持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 = 7Eh - SW1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">以外、全部押されている
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">STOP: 7Fh </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or 00h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保持</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1
+1-254; 20 ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">保持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BUSY LOW
+1 = 01h
+STOP: 00h </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or FFh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保持</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイナリ制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2
+1-254; 20 ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">保持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BUSY LOW
+1 = FEh
+STOP: FFh </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or 00h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保持</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">バイナリ制御１
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1-250; 20 ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">保持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BUSY LOW
+1 = FAh
+STOP: FFh </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or 00h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保持</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">バイナリ制御２
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1-250; 20 ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">保持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BUSY LOW
+1 = 01h
+STOP: FFh </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or 00h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保持</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/10/13 Check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2W/5W　　（抵抗定数の変更で可能）5W最大音量で１．２W切替確認</t>
+    <rPh sb="23" eb="25">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2267,7 +2936,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2326,20 +2995,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8" tint="-0.499984740745262"/>
-      <name val="HGPｺﾞｼｯｸM"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF9933"/>
-      <name val="HGPｺﾞｼｯｸM"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="HGPｺﾞｼｯｸM"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2353,7 +3008,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <color rgb="FF00B0F0"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="HGPｺﾞｼｯｸM"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2361,27 +3062,62 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="HGPｺﾞｼｯｸM"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="HGPｺﾞｼｯｸM"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="HGPｺﾞｼｯｸM"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2424,8 +3160,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2626,13 +3368,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2711,12 +3470,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2762,15 +3515,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2786,39 +3533,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2834,23 +3554,149 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2867,42 +3713,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2915,6 +3725,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2942,76 +3767,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3021,18 +3819,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4729,7 +5515,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>62559</xdr:rowOff>
+      <xdr:rowOff>33251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4759,8 +5545,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17659351" y="542925"/>
-          <a:ext cx="2171700" cy="2234259"/>
+          <a:off x="7802441" y="534133"/>
+          <a:ext cx="2171700" cy="2202753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4962,61 +5748,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3731559</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3752850</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1187823</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線コネクタ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40064F3F-71DF-44AE-B06C-A83400D29FC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7274859" y="11687175"/>
-          <a:ext cx="3774141" cy="1149723"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5381,11 +6112,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFE71ED-4794-434D-8B70-AFC9629A6BE2}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="8"/>
     <col min="2" max="2" width="8.88671875" style="18"/>
@@ -5394,89 +6125,89 @@
     <col min="5" max="7" width="43.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="C2" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>90</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="C6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="C7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="54">
-      <c r="A8" s="31" t="s">
-        <v>108</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A9" s="82" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="99" t="s">
+        <v>93</v>
       </c>
       <c r="B9" s="16">
         <v>1</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>87</v>
+      <c r="D9" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>33</v>
@@ -5484,16 +6215,16 @@
       <c r="F9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="54">
-      <c r="A10" s="92"/>
+      <c r="G9" s="99"/>
+    </row>
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="109"/>
       <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="36" t="s">
-        <v>88</v>
+      <c r="C10" s="104"/>
+      <c r="D10" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>33</v>
@@ -5501,26 +6232,26 @@
       <c r="F10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="83"/>
-    </row>
-    <row r="11" spans="1:7" ht="94.5">
-      <c r="A11" s="83"/>
-      <c r="B11" s="28">
+      <c r="G10" s="100"/>
+    </row>
+    <row r="11" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="100"/>
+      <c r="B11" s="26">
         <v>3</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="36"/>
+      <c r="C11" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="34"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="67.5">
-      <c r="A12" s="88" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="105" t="s">
+        <v>94</v>
       </c>
       <c r="B12" s="15">
         <v>4</v>
@@ -5529,7 +6260,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>33</v>
@@ -5539,24 +6270,24 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="67.5">
-      <c r="A13" s="89"/>
+    <row r="13" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="106"/>
       <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>110</v>
+      <c r="C13" s="38" t="s">
+        <v>103</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="57" customHeight="1">
-      <c r="A14" s="34" t="s">
-        <v>102</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="B14" s="16">
         <v>6</v>
@@ -5564,8 +6295,8 @@
       <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>89</v>
+      <c r="D14" s="34" t="s">
+        <v>84</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>33</v>
@@ -5573,13 +6304,13 @@
       <c r="F14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5">
-      <c r="A15" s="31" t="s">
-        <v>103</v>
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="B15" s="15">
         <v>7</v>
@@ -5588,7 +6319,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>33</v>
@@ -5596,13 +6327,13 @@
       <c r="F15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="81">
-      <c r="A16" s="34" t="s">
-        <v>104</v>
+    <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A16" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="B16" s="16">
         <v>8</v>
@@ -5610,22 +6341,22 @@
       <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="D16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="94.5">
-      <c r="A17" s="31" t="s">
-        <v>105</v>
+    <row r="17" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="B17" s="15">
         <v>9</v>
@@ -5633,22 +6364,22 @@
       <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="94.5">
-      <c r="A18" s="86" t="s">
-        <v>106</v>
+    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="103" t="s">
+        <v>99</v>
       </c>
       <c r="B18" s="16">
         <v>10</v>
@@ -5656,35 +6387,35 @@
       <c r="C18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>91</v>
+      <c r="D18" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="84" t="s">
+      <c r="G18" s="101" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="67.5">
-      <c r="A19" s="87"/>
+    <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="104"/>
       <c r="B19" s="16">
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-    </row>
-    <row r="20" spans="1:7" ht="108.75" customHeight="1">
-      <c r="A20" s="88" t="s">
-        <v>107</v>
+        <v>153</v>
+      </c>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+    </row>
+    <row r="20" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="105" t="s">
+        <v>100</v>
       </c>
       <c r="B20" s="15">
         <v>12</v>
@@ -5692,19 +6423,19 @@
       <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>90</v>
+      <c r="D20" s="35" t="s">
+        <v>189</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="90" t="s">
+      <c r="F20" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="90" t="s">
+      <c r="G20" s="107" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="67.5">
-      <c r="A21" s="89"/>
+    <row r="21" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="106"/>
       <c r="B21" s="15">
         <v>13</v>
       </c>
@@ -5713,36 +6444,36 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="F24" s="64"/>
-    </row>
-    <row r="25" spans="1:7">
+        <v>154</v>
+      </c>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F24" s="51"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F29" s="23"/>
     </row>
-    <row r="52" spans="5:5">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5767,904 +6498,991 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC51B83-83D2-4537-9B06-1FD4D3D4725D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="33"/>
+    <col min="1" max="1" width="8.88671875" style="31"/>
     <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="24.75">
-      <c r="A4" s="47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="30">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="30">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="30">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="30">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="C9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="30">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="30">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="30">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="C12" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="47" t="s">
+      <c r="E12" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="30">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="30">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="30">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C16" s="54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="52"/>
+      <c r="C17" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="52"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="114" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="32">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="32">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="32">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="32">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="32">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="32">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="32">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="32">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="32"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="32">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="32">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="32">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" s="72" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="65"/>
-      <c r="C17" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" s="65"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="32">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="30">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="32">
+      <c r="C26" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="30">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="32">
+      <c r="C27" s="110" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="30">
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="32">
+      <c r="C28" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="30">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="32">
+      <c r="C29" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="30">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="32">
+      <c r="C30" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="30">
         <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="32">
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="30">
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="32">
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="30">
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="32">
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="30">
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="32">
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="30">
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="32">
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="30">
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="32"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="32">
+      <c r="C36" s="111"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="30">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="32"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="32">
+      <c r="C37" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="30">
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="32"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="32">
+      <c r="C38" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="30">
         <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="32">
+      <c r="C39" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="30">
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="32">
+      <c r="C40" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="30">
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="32"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="32">
+      <c r="C41" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="30">
         <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="93" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="32">
+      <c r="C42" s="110" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="30">
         <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="32"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="32">
+      <c r="C43" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="30">
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="32">
+      <c r="C44" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="30">
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="93" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="32"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="32">
+      <c r="C45" s="110" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="30">
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="32">
+      <c r="C46" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="30">
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="32"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="32">
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="30">
         <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="32"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="32">
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="30">
         <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="32"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="32">
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="30">
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="32"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="32">
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="30">
         <v>26</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="32"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="32">
+        <v>143</v>
+      </c>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="30">
         <v>27</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="32"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="32">
+        <v>144</v>
+      </c>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="30">
         <v>28</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="32"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="32">
+        <v>145</v>
+      </c>
+      <c r="C53" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="30">
         <v>29</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="32"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="32">
+        <v>146</v>
+      </c>
+      <c r="C54" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="30">
         <v>30</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="93"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="32"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="32">
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="30">
         <v>31</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="32"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="C57" s="106"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" s="48" t="s">
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B59" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="50" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="B60" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="63" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="C59" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B60" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="E61" s="95"/>
-      <c r="F61" s="95"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="D61" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="97"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="D62" s="119"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="97"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="D63" s="119"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="121"/>
+      <c r="H63" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="100"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="32" t="s">
-        <v>144</v>
+        <v>179</v>
+      </c>
+      <c r="D64" s="122"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="123"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="30" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D61:G64"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C38:G38"/>
@@ -6674,35 +7492,12 @@
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="D61:G64"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6714,185 +7509,220 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="33" customWidth="1"/>
+    <col min="2" max="2" width="9" style="31" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="31" customWidth="1"/>
     <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="81" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="53" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="67"/>
+      <c r="B3" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="110"/>
-    </row>
-    <row r="4" spans="1:7" ht="108">
-      <c r="A4" s="51"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="53" t="s">
+      <c r="F3" s="68"/>
+      <c r="G3" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A4" s="67"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="110"/>
-    </row>
-    <row r="5" spans="1:7" ht="40.5">
-      <c r="A5" s="51"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="5" t="s">
+      <c r="E4" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A5" s="67"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="110"/>
-    </row>
-    <row r="6" spans="1:7" ht="54">
-      <c r="A6" s="51"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A6" s="67"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="110"/>
-    </row>
-    <row r="7" spans="1:7" ht="40.5">
-      <c r="A7" s="51"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="53" t="s">
+      <c r="E6" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A7" s="67"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="110"/>
-    </row>
-    <row r="8" spans="1:7" ht="67.5">
-      <c r="A8" s="51"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="52" t="s">
+      <c r="E7" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="67"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="67"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="110"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="51"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="53" t="s">
+      <c r="E9" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="131"/>
+      <c r="G9" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="84.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="67"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="115"/>
-      <c r="G9" s="110"/>
-    </row>
-    <row r="10" spans="1:7" ht="94.5">
-      <c r="A10" s="51"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="53" t="s">
+      <c r="E10" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="132"/>
+      <c r="G10" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="84.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="67"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E11" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="F10" s="116"/>
-      <c r="G10" s="111"/>
-    </row>
-    <row r="11" spans="1:7" ht="94.5">
-      <c r="A11" s="51"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="112"/>
-    </row>
-    <row r="12" spans="1:7" ht="40.5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="68" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A12" s="74"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="75"/>
+      <c r="E12" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="G12" s="98" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G11"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="F8:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6903,202 +7733,223 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="33" customWidth="1"/>
+    <col min="2" max="2" width="9" style="31" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="31" customWidth="1"/>
     <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="40.5">
-      <c r="A4" s="51"/>
-      <c r="B4" s="113" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" s="119"/>
-    </row>
-    <row r="5" spans="1:7" ht="108">
-      <c r="A5" s="51"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="53" t="s">
+      <c r="E4" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A5" s="47"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="119"/>
-    </row>
-    <row r="6" spans="1:7" ht="67.5">
-      <c r="A6" s="51"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="E5" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A6" s="47"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="119"/>
-    </row>
-    <row r="7" spans="1:7" ht="54">
-      <c r="A7" s="51"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="53" t="s">
+      <c r="E6" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A7" s="47"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="119"/>
-    </row>
-    <row r="8" spans="1:7" ht="40.5">
-      <c r="A8" s="51"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="53" t="s">
+      <c r="E7" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A8" s="47"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="119"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="51"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="119"/>
-    </row>
-    <row r="10" spans="1:7" ht="94.5">
-      <c r="A10" s="51"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="53" t="s">
+      <c r="E8" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="47"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="47"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="119"/>
-    </row>
-    <row r="11" spans="1:7" ht="67.5">
-      <c r="A11" s="51"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="53" t="s">
+      <c r="E10" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="47"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="120"/>
-    </row>
-    <row r="12" spans="1:7" ht="67.5">
-      <c r="A12" s="51"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="53" t="s">
+      <c r="E11" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="47"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="121"/>
-    </row>
-    <row r="13" spans="1:7" ht="40.5">
+      <c r="E12" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="79"/>
+      <c r="G12" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="24"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="68" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="79"/>
+      <c r="G13" s="98" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G4:G12"/>
     <mergeCell ref="B4:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7109,193 +7960,222 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="33" customWidth="1"/>
+    <col min="2" max="2" width="9" style="31" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="31" customWidth="1"/>
     <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.5">
-      <c r="A4" s="51"/>
-      <c r="B4" s="123" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="53" t="s">
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="64"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="136" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="119"/>
-    </row>
-    <row r="5" spans="1:7" ht="108">
-      <c r="A5" s="51"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="53" t="s">
+      <c r="E4" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A5" s="47"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="119"/>
-    </row>
-    <row r="6" spans="1:7" ht="67.5">
-      <c r="A6" s="51"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="E5" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A6" s="47"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="119"/>
-    </row>
-    <row r="7" spans="1:7" ht="54">
-      <c r="A7" s="51"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="53" t="s">
+      <c r="E6" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A7" s="47"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="119"/>
-    </row>
-    <row r="8" spans="1:7" ht="40.5">
-      <c r="A8" s="51"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="53" t="s">
+      <c r="E7" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A8" s="47"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="119"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="51"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="52" t="s">
+      <c r="E8" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="47"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="47"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="47"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="119"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="51"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="53" t="s">
+      <c r="E11" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="47"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="119"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="51"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="120"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="51"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="121"/>
-    </row>
-    <row r="13" spans="1:7" ht="40.5">
+      <c r="E12" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="79"/>
+      <c r="G13" s="98" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G4:G12"/>
     <mergeCell ref="B4:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7304,13 +8184,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
@@ -7321,149 +8201,195 @@
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="75" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="113" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="67"/>
+      <c r="B3" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="53" t="s">
+      <c r="G3" s="137" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="67"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E4" s="95" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="67"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="67"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="67"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="67"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="67"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="67"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="67"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="67"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="67"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="74"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="124" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="67.5">
-      <c r="A4" s="51"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="125"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="51"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="54" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="125"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="51"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="125"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="51"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="125"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="51"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="125"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="51"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="125"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="51"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="126"/>
-    </row>
-    <row r="11" spans="1:7" ht="40.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="98" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7471,8 +8397,8 @@
     <mergeCell ref="B3:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7484,14 +8410,14 @@
       <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="15" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="14.25">
+    <row r="3" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="21">
         <v>1</v>
@@ -7533,18 +8459,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="14.25">
+    <row r="4" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="128" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="129" t="s">
-        <v>51</v>
+      <c r="D4" s="141" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="142" t="s">
+        <v>52</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
@@ -7566,20 +8492,20 @@
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="127" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="127" t="s">
+      <c r="N4" s="140" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25">
+      <c r="O4" s="140" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="129"/>
+        <v>51</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
       <c r="F5" s="21">
         <v>0</v>
       </c>
@@ -7599,17 +8525,17 @@
         <v>5</v>
       </c>
       <c r="L5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-    </row>
-    <row r="6" spans="2:15" ht="14.25">
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+    </row>
+    <row r="6" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="21">
         <v>3</v>
@@ -7651,9 +8577,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="14.25">
+    <row r="7" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -7669,7 +8595,7 @@
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15" ht="14.25">
+    <row r="8" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -7685,7 +8611,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="2:15" ht="14.25">
+    <row r="9" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -7701,9 +8627,9 @@
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="2:15" ht="14.25">
+    <row r="10" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B10" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="21">
         <v>1</v>
@@ -7745,9 +8671,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="14.25">
+    <row r="11" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B11" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="21">
         <v>7</v>
@@ -7767,23 +8693,23 @@
       <c r="H11" s="21">
         <v>12</v>
       </c>
-      <c r="I11" s="128" t="s">
+      <c r="I11" s="141" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="128" t="s">
-        <v>56</v>
-      </c>
       <c r="L11" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="2:15" ht="14.25">
+    <row r="12" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B12" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="21">
         <v>6</v>
@@ -7803,11 +8729,11 @@
       <c r="H12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="128"/>
+      <c r="I12" s="141"/>
       <c r="J12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="128"/>
+      <c r="K12" s="141"/>
       <c r="L12" s="21" t="s">
         <v>28</v>
       </c>
@@ -7821,9 +8747,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="14.25">
+    <row r="13" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B13" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="21">
         <v>11</v>
@@ -7847,9 +8773,9 @@
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="2:15" ht="14.25">
+    <row r="14" spans="2:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -7873,7 +8799,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="26" spans="11:11">
+    <row r="26" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K26" s="20"/>
     </row>
   </sheetData>
@@ -7894,303 +8820,221 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E15240-D5D1-428C-9CF5-C18285C44A13}">
-  <dimension ref="C2:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F028F4-7CE1-4D24-8989-B90A60436752}">
+  <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="11" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11">
-      <c r="C2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="86"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="91" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" s="84" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="3:11">
-      <c r="C3" s="1"/>
-      <c r="D3" s="77">
-        <v>6</v>
-      </c>
-      <c r="E3" s="77">
-        <v>7</v>
-      </c>
-      <c r="F3" s="77">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" ht="27">
-      <c r="C4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+    </row>
+    <row r="6" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" ht="27">
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" ht="27">
-      <c r="C6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" ht="27">
-      <c r="C7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11">
-      <c r="C11" t="s">
+      <c r="H10" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+    </row>
+    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B12" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="94"/>
+      <c r="H12" s="85"/>
+    </row>
+    <row r="13" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="130" t="s">
-        <v>204</v>
-      </c>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-    </row>
-    <row r="12" spans="3:11">
-      <c r="C12" s="1"/>
-      <c r="D12" s="77">
-        <v>6</v>
-      </c>
-      <c r="E12" s="75">
-        <v>7</v>
-      </c>
-      <c r="F12" s="75">
-        <v>8</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="I12" s="79">
-        <v>7</v>
-      </c>
-      <c r="J12" s="79">
-        <v>8</v>
-      </c>
-      <c r="K12" s="80"/>
-    </row>
-    <row r="13" spans="3:11">
-      <c r="C13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="H13" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="I13" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="J13" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="K13" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11">
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="H14" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="J14" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="K14" s="80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11">
-      <c r="C15" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="I15" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="J15" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="K15" s="80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11">
-      <c r="C16" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="I16" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="J16" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="K16" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="G17" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="I17" s="40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="G18" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="I18" s="40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9">
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
+      <c r="C13" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E11:H11"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>